--- a/InputParameters.xlsx
+++ b/InputParameters.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icromwell/Desktop/My Work/Lymphoma/DES Model/DLBCL_DES_COO/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DE140E-A54A-4E46-BA62-3DD8C7E77839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="-105" windowWidth="18045" windowHeight="14265"/>
+    <workbookView xWindow="13820" yWindow="840" windowWidth="14340" windowHeight="14260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -13,10 +19,16 @@
     <sheet name="PrefCoeffs" sheetId="4" r:id="rId4"/>
     <sheet name="TestChars" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,13 +38,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ian Cromwell</author>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="1">
+    <comment ref="A16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="1">
+    <comment ref="A17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -122,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="1">
+    <comment ref="A19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -160,12 +172,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -195,12 +207,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ian Cromwell</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -231,7 +243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="138">
   <si>
     <t>TypeNo</t>
   </si>
@@ -248,12 +260,6 @@
     <t>NatHist_prevOPLunder50m</t>
   </si>
   <si>
-    <t>Tx_recurrence_probSurgery</t>
-  </si>
-  <si>
-    <t>Tx_stageI_probSurgery</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -317,66 +323,21 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
     <t>ref</t>
   </si>
   <si>
     <t>Assumption</t>
   </si>
   <si>
-    <t>Sigma</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>cancerStage</t>
-  </si>
-  <si>
-    <t>tx_prim</t>
-  </si>
-  <si>
-    <t>tx_recur</t>
-  </si>
-  <si>
     <t>Tx_stageI_probSurgeryRT</t>
   </si>
   <si>
     <t>Tx_stageI_probOther</t>
   </si>
   <si>
-    <t>Retrospective cohort</t>
-  </si>
-  <si>
-    <t>Tx_recurrence_probNonsurgery</t>
-  </si>
-  <si>
-    <t>Tx_recurrence_probPalliative</t>
-  </si>
-  <si>
     <t>Speight (2008)</t>
   </si>
   <si>
-    <t>Tx_recurrence_probNoTx</t>
-  </si>
-  <si>
     <t>NatHist_timeStagefour_death80plusm</t>
   </si>
   <si>
@@ -389,27 +350,6 @@
     <t>Util_Well</t>
   </si>
   <si>
-    <t>Adv</t>
-  </si>
-  <si>
-    <t>Surgery</t>
-  </si>
-  <si>
-    <t>SurgeryRT</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Nonsurgery</t>
-  </si>
-  <si>
-    <t>Palliative</t>
-  </si>
-  <si>
-    <t>Notx</t>
-  </si>
-  <si>
     <t>Treatment - Stage I - Surgery</t>
   </si>
   <si>
@@ -473,18 +413,6 @@
     <t>Treatment - Palliative</t>
   </si>
   <si>
-    <t>Cost_TxPrim</t>
-  </si>
-  <si>
-    <t>Cost_Recur</t>
-  </si>
-  <si>
-    <t>Cost_2Recur</t>
-  </si>
-  <si>
-    <t>Cost_EoL</t>
-  </si>
-  <si>
     <t>Weighted average + SD from MSP oncology f/u code (33512)</t>
   </si>
   <si>
@@ -503,9 +431,6 @@
     <t>VarNo</t>
   </si>
   <si>
-    <t>PtPref_Test</t>
-  </si>
-  <si>
     <t>Pref_patient_invasiveness</t>
   </si>
   <si>
@@ -648,13 +573,97 @@
   </si>
   <si>
     <t>addspecificity</t>
+  </si>
+  <si>
+    <t>Tx_MaxCycle</t>
+  </si>
+  <si>
+    <t>Tx_TimeTreat</t>
+  </si>
+  <si>
+    <t>Folup_Time_AppInterval</t>
+  </si>
+  <si>
+    <t>SysP_Followup</t>
+  </si>
+  <si>
+    <t>Util_Remission</t>
+  </si>
+  <si>
+    <t>Util_EoL</t>
+  </si>
+  <si>
+    <t>ClinHist_AssignRecurrence</t>
+  </si>
+  <si>
+    <t>Util_FollowUp</t>
+  </si>
+  <si>
+    <t>Util_AdvEvent_Standard</t>
+  </si>
+  <si>
+    <t>Util_AdvEvent_GEP</t>
+  </si>
+  <si>
+    <t>Util_Treatment_Standard</t>
+  </si>
+  <si>
+    <t>Util_Treatment_GEP</t>
+  </si>
+  <si>
+    <t>SysP_Treatment</t>
+  </si>
+  <si>
+    <t>Tx_ProbAdverseEvent_Standard</t>
+  </si>
+  <si>
+    <t>Tx_ProbAdverseEvent_GEP</t>
+  </si>
+  <si>
+    <t>Tx_Tprob_CRtoRecur</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>GCB</t>
+  </si>
+  <si>
+    <t>Dhit</t>
+  </si>
+  <si>
+    <t>Undef</t>
+  </si>
+  <si>
+    <t>GenPop</t>
+  </si>
+  <si>
+    <t>Under60</t>
+  </si>
+  <si>
+    <t>Over60</t>
+  </si>
+  <si>
+    <t>Tx_Tprob_CRtoDeath</t>
+  </si>
+  <si>
+    <t>Tx_Tprob_RecurtoDeath</t>
+  </si>
+  <si>
+    <t>Group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,13 +704,6 @@
       <color indexed="81"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -750,7 +752,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -758,40 +760,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1095,23 +1078,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1119,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1128,12 +1111,12 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1148,9 +1131,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1165,9 +1148,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1179,12 +1162,12 @@
         <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1196,12 +1179,12 @@
         <v>166</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1213,12 +1196,12 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1230,97 +1213,100 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>62</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.05</v>
+      </c>
+      <c r="E8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0.05</v>
+      </c>
+      <c r="E9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11">
         <v>2</v>
-      </c>
-      <c r="D9">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>235</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>180</v>
+      </c>
+      <c r="G12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1331,13 +1317,10 @@
       <c r="D13">
         <v>26</v>
       </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -1348,53 +1331,50 @@
       <c r="D14">
         <v>58</v>
       </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="3">
         <v>6</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="4">
         <v>-3.1318000000000001</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="3">
         <v>0.25790000000000002</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="7">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3">
         <v>7</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="3">
         <v>0.13</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="3">
         <v>0.14000000000000001</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -1409,12 +1389,12 @@
         <v>0.01</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -1429,12 +1409,12 @@
         <v>0.22359999999999999</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>9</v>
@@ -1449,14 +1429,14 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:11">
+        <v>27</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1471,9 +1451,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1488,9 +1468,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1505,9 +1485,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1522,9 +1502,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -1536,8 +1516,67 @@
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0.4</v>
+      </c>
+      <c r="D26">
+        <v>0.01</v>
+      </c>
+      <c r="G26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:K95">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K95">
     <sortCondition ref="B2:B95"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1547,7 +1586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
@@ -1555,16 +1594,16 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1578,519 +1617,519 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43.1</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>254.91</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>250.4</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9">
-        <v>43.1</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>254.91</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>59.51</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9">
-        <v>250.4</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
-        <v>59.51</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>9268.5499999999993</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="5">
         <v>10758.64</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <v>9268.5499999999993</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="5">
         <v>10758.64</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>21219</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>17525.96</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="5">
         <v>7630.33</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="5">
         <v>9051.5499999999993</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>19299.16</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>25503.439999999999</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="5">
         <v>26059.51</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="5">
         <v>18567.71</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>10279.56</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="5">
         <v>8660.23</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="5">
         <v>38185.449999999997</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="5">
         <v>40438.870000000003</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="5">
         <v>34925.65</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="5">
         <v>22256.47</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="5">
         <v>14848.61</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="5">
         <v>16238.45</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="5">
         <v>29262.14</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="5">
         <v>42730.52</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="5">
         <v>17066.59</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="5">
         <v>20314.990000000002</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="5">
         <v>20778.66</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="5">
         <v>31106.02</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="5">
         <v>11119.52</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="5">
         <v>8518</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="5">
         <v>16616.98</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="5">
         <v>27427.74</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="5">
         <v>20778.66</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="5">
         <v>31106.02</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="5">
         <v>17930.25</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="5">
         <v>21977.09</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>591.29</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9">
-        <v>591.29</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="5">
         <v>154</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="5">
         <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>80.67</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" t="s">
         <v>17</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9">
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5">
         <v>80.67</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" s="9">
-        <v>80.67</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="5">
         <v>154</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="5">
         <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F28" t="str">
         <f>F25</f>
         <v>Weighted average + SD from MSP oncology f/u code (33512)</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>22</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" s="9">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="5">
         <v>0</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="5"/>
       <c r="E30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2099,28 +2138,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2129,471 +2168,1444 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
       </c>
       <c r="E2">
-        <v>9.2415000000000003</v>
+        <v>-4.8614649999999999</v>
       </c>
       <c r="F2">
-        <v>6.9400000000000003E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.56226900000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
       </c>
       <c r="E3">
-        <v>1.0499000000000001</v>
+        <v>-0.5228583</v>
       </c>
       <c r="F3">
-        <v>4.7699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.1233935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
       </c>
       <c r="E4">
-        <v>2.0000000000000001E-4</v>
+        <v>-3.7219159999999998</v>
       </c>
       <c r="F4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.98258809999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>128</v>
+      </c>
+      <c r="E5">
+        <v>-0.96361240000000004</v>
+      </c>
+      <c r="F5">
+        <v>0.32371250000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="E6">
-        <v>-7.4300000000000005E-2</v>
+        <v>-5.4284239999999997</v>
       </c>
       <c r="F6">
-        <v>7.1800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.6997776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
+        <v>132</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>128</v>
+      </c>
+      <c r="E7">
+        <v>-0.66112340000000003</v>
+      </c>
+      <c r="F7">
+        <v>0.17157069999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>131</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="E8">
-        <v>0.58540000000000003</v>
+        <v>-5.125019</v>
       </c>
       <c r="F8">
-        <v>8.3400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1.07975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="E9">
-        <v>1.0161</v>
+        <v>-0.54901319999999998</v>
       </c>
       <c r="F9">
-        <v>9.5200000000000007E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.24004819999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>127</v>
+      </c>
+      <c r="E10">
+        <v>-4.8843170000000002</v>
+      </c>
+      <c r="F10">
+        <v>1.047987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
+        <v>133</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="E11">
-        <v>0.50549999999999995</v>
+        <v>-0.6201063</v>
       </c>
       <c r="F11">
-        <v>0.11509999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.25068610000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="E12">
-        <v>-0.52290000000000003</v>
+        <v>-3.7219159999999998</v>
       </c>
       <c r="F12">
-        <v>8.0699999999999994E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.98258809999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="3">
-        <v>10.9358</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.65749999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>133</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13">
+        <v>-0.96361240000000004</v>
+      </c>
+      <c r="F13">
+        <v>0.32371250000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.71389999999999998</v>
-      </c>
-      <c r="F14" s="3">
-        <v>9.1899999999999996E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>133</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>-5.3335249999999998</v>
+      </c>
+      <c r="F14">
+        <v>0.99185429999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-1.0500000000000001E-2</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1.01E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15">
+        <v>-0.70301809999999998</v>
+      </c>
+      <c r="F15">
+        <v>0.25211929999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>-4.8696770000000003</v>
+      </c>
+      <c r="F16">
+        <v>1.522791</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="C17" t="s">
+        <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2.1100000000000001E-2</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.27610000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>128</v>
+      </c>
+      <c r="E17">
+        <v>-0.65110840000000003</v>
+      </c>
+      <c r="F17">
+        <v>0.37036229999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
+        <v>134</v>
+      </c>
+      <c r="C18" t="s">
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6">
+        <v>127</v>
+      </c>
+      <c r="E18">
+        <v>-4.8604849999999997</v>
+      </c>
+      <c r="F18">
+        <v>0.66654230000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
+        <v>134</v>
+      </c>
+      <c r="C19" t="s">
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="5">
-        <v>-0.47539999999999999</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0.29799999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>128</v>
+      </c>
+      <c r="E19">
+        <v>-0.47558</v>
+      </c>
+      <c r="F19">
+        <v>0.14039889999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
+        <v>134</v>
+      </c>
+      <c r="C20" t="s">
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="5">
-        <v>-0.3306</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0.37190000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>127</v>
+      </c>
+      <c r="E20">
+        <v>-3.7219159999999998</v>
+      </c>
+      <c r="F20">
+        <v>0.98258809999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
+        <v>134</v>
+      </c>
+      <c r="C21" t="s">
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="5">
-        <v>-0.95179999999999998</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0.58040000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>128</v>
+      </c>
+      <c r="E21">
+        <v>-0.96361240000000004</v>
+      </c>
+      <c r="F21">
+        <v>0.32371250000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>134</v>
+      </c>
+      <c r="C22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" t="s">
+        <v>127</v>
       </c>
       <c r="E22">
-        <v>12.154999999999999</v>
+        <v>-4.8389689999999996</v>
       </c>
       <c r="F22">
-        <v>2.2355999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.70690160000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>134</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" t="s">
+        <v>128</v>
       </c>
       <c r="E23">
-        <v>0.90429999999999999</v>
+        <v>-0.75679850000000004</v>
       </c>
       <c r="F23">
-        <v>0.3221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.19084709999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
+        <v>134</v>
+      </c>
+      <c r="C24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
       </c>
       <c r="E24">
-        <v>-3.7699999999999997E-2</v>
+        <v>-5.4116799999999996</v>
       </c>
       <c r="F24">
-        <v>3.5799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>1.5424359999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
+        <v>134</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>128</v>
+      </c>
+      <c r="E25">
+        <v>-0.4523102</v>
+      </c>
+      <c r="F25">
+        <v>0.31514569999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>126</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="E26">
-        <v>0.36919999999999997</v>
+        <v>-7.5961809999999996</v>
       </c>
       <c r="F26">
-        <v>1.0263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>1.4116519999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
       </c>
       <c r="E27">
-        <v>9.7909000000000006</v>
+        <v>-0.28306179999999997</v>
       </c>
       <c r="F27">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.24249280000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
       </c>
       <c r="E28">
-        <v>0.7419</v>
+        <v>-10.722340000000001</v>
       </c>
       <c r="F28">
-        <v>3.7999999999999999E-2</v>
+        <v>6.8431790000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29">
+        <v>1.65183E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.84597500000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>-9.8273209999999995</v>
+      </c>
+      <c r="F30">
+        <v>1.49576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31">
+        <v>1.4131700000000001E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.1865637</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>-9.6285810000000005</v>
+      </c>
+      <c r="F32">
+        <v>3.6240800000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33">
+        <v>-4.5154100000000003E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.4831473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34">
+        <v>-5.3542100000000001</v>
+      </c>
+      <c r="F34">
+        <v>1.811401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35">
+        <v>-1.0616540000000001</v>
+      </c>
+      <c r="F35">
+        <v>0.66370980000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36">
+        <v>-10.722340000000001</v>
+      </c>
+      <c r="F36">
+        <v>6.8431790000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37">
+        <v>1.65183E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.84597500000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38">
+        <v>-12.205679999999999</v>
+      </c>
+      <c r="F38">
+        <v>7.2096809999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39">
+        <v>3.87126E-2</v>
+      </c>
+      <c r="F39">
+        <v>0.8750618</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40">
+        <v>-9.6285810000000005</v>
+      </c>
+      <c r="F40">
+        <v>3.6240800000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41">
+        <v>-4.5154100000000003E-2</v>
+      </c>
+      <c r="F41">
+        <v>0.4831473</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42">
+        <v>-8.7907849999999996</v>
+      </c>
+      <c r="F42">
+        <v>1.8740030000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43">
+        <v>-5.3880999999999998E-2</v>
+      </c>
+      <c r="F43">
+        <v>0.25437369999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44">
+        <v>-10.722340000000001</v>
+      </c>
+      <c r="F44">
+        <v>6.8431790000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45">
+        <v>1.65183E-2</v>
+      </c>
+      <c r="F45">
+        <v>0.84597500000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46">
+        <v>-9.4201750000000004</v>
+      </c>
+      <c r="F46">
+        <v>1.5367679999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47">
+        <v>2.1787299999999999E-2</v>
+      </c>
+      <c r="F47">
+        <v>0.1904719</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48">
+        <v>-9.6285810000000005</v>
+      </c>
+      <c r="F48">
+        <v>3.6240800000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49">
+        <v>-4.5154100000000003E-2</v>
+      </c>
+      <c r="F49">
+        <v>0.4831473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50">
+        <v>-3.2747120000000001</v>
+      </c>
+      <c r="F50">
+        <v>0.45247939999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51">
+        <v>-0.63537929999999998</v>
+      </c>
+      <c r="F51">
+        <v>0.122891</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52">
+        <v>-9.4869240000000001</v>
+      </c>
+      <c r="F52">
+        <v>2.7837209999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53">
+        <v>0.70038330000000004</v>
+      </c>
+      <c r="F53">
+        <v>0.27812809999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54">
+        <v>-3.1834349999999998</v>
+      </c>
+      <c r="F54">
+        <v>0.62189530000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55">
+        <v>-0.75665110000000002</v>
+      </c>
+      <c r="F55">
+        <v>0.1885936</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56">
+        <v>-3.3841510000000001</v>
+      </c>
+      <c r="F56">
+        <v>0.85316999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57">
+        <v>-0.58586269999999996</v>
+      </c>
+      <c r="F57">
+        <v>0.22330649999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58">
+        <v>-3.3393130000000002</v>
+      </c>
+      <c r="F58">
+        <v>0.98982800000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59">
+        <v>-0.80166400000000004</v>
+      </c>
+      <c r="F59">
+        <v>0.29951870000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60">
+        <v>-9.4869240000000001</v>
+      </c>
+      <c r="F60">
+        <v>2.7837209999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61">
+        <v>0.70038330000000004</v>
+      </c>
+      <c r="F61">
+        <v>0.27812809999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62">
+        <v>-3.1833879999999999</v>
+      </c>
+      <c r="F62">
+        <v>0.92363510000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63">
+        <v>-0.83449700000000004</v>
+      </c>
+      <c r="F63">
+        <v>0.28962919999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64">
+        <v>-3.6348850000000001</v>
+      </c>
+      <c r="F64">
+        <v>1.385478</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65">
+        <v>-0.51855770000000001</v>
+      </c>
+      <c r="F65">
+        <v>0.34395890000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" t="s">
+        <v>127</v>
+      </c>
+      <c r="E66">
+        <v>-3.3733050000000002</v>
+      </c>
+      <c r="F66">
+        <v>0.52197899999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67">
+        <v>-0.53891429999999996</v>
+      </c>
+      <c r="F67">
+        <v>0.1329236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" t="s">
+        <v>127</v>
+      </c>
+      <c r="E68">
+        <v>-9.4869240000000001</v>
+      </c>
+      <c r="F68">
+        <v>2.7837209999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69">
+        <v>0.70038330000000004</v>
+      </c>
+      <c r="F69">
+        <v>0.27812809999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" t="s">
+        <v>127</v>
+      </c>
+      <c r="E70">
+        <v>-3.5435949999999998</v>
+      </c>
+      <c r="F70">
+        <v>0.70051419999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71">
+        <v>-0.47834569999999998</v>
+      </c>
+      <c r="F71">
+        <v>0.1784395</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" t="s">
+        <v>131</v>
+      </c>
+      <c r="D72" t="s">
+        <v>127</v>
+      </c>
+      <c r="E72">
+        <v>-3.2215929999999999</v>
+      </c>
+      <c r="F72">
+        <v>1.083429</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" t="s">
+        <v>128</v>
+      </c>
+      <c r="E73">
+        <v>-0.63080709999999995</v>
+      </c>
+      <c r="F73">
+        <v>0.29363230000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2603,32 +3615,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="3" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="3" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -2640,38 +3652,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2683,18 +3695,18 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2706,15 +3718,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -2726,18 +3738,18 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2749,18 +3761,18 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2772,18 +3784,18 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2795,35 +3807,35 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -2835,15 +3847,15 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -2855,38 +3867,38 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2898,18 +3910,18 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2921,32 +3933,32 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2958,18 +3970,18 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2981,18 +3993,18 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3004,35 +4016,35 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
         <v>105</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" t="s">
-        <v>134</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -3044,15 +4056,15 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -3070,163 +4082,163 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3235,12 +4247,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3249,12 +4261,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3263,12 +4275,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3277,12 +4289,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C13">
         <v>0</v>

--- a/InputParameters.xlsx
+++ b/InputParameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icromwell/Desktop/My Work/Lymphoma/DES Model/DLBCL_DES_COO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DE140E-A54A-4E46-BA62-3DD8C7E77839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B46F3FD-6ADE-F145-9411-1C06680DC7A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13820" yWindow="840" windowWidth="14340" windowHeight="14260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13820" yWindow="840" windowWidth="14340" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ian Cromwell</author>
-    <author>Microsoft Office User</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -74,96 +73,6 @@
 8 - Beta
 9 - Point Estimate
 10 - Test Characteristic</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Annual probability that existing condition will be detected in the course of routine practice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Have to use a different form for the probability here, as the parameterization doesn't work for values close to 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Base case assumes that all dentists participate in routine screening according to guideline</t>
         </r>
       </text>
     </comment>
@@ -243,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="133">
   <si>
     <t>TypeNo</t>
   </si>
@@ -257,9 +166,6 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>NatHist_prevOPLunder50m</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -302,9 +208,6 @@
     <t>Follow-up appointment - final</t>
   </si>
   <si>
-    <t>Screen_compliance</t>
-  </si>
-  <si>
     <t>Discount</t>
   </si>
   <si>
@@ -329,24 +232,6 @@
     <t>Assumption</t>
   </si>
   <si>
-    <t>Tx_stageI_probSurgeryRT</t>
-  </si>
-  <si>
-    <t>Tx_stageI_probOther</t>
-  </si>
-  <si>
-    <t>Speight (2008)</t>
-  </si>
-  <si>
-    <t>NatHist_timeStagefour_death80plusm</t>
-  </si>
-  <si>
-    <t>NatHist_timeStagefour_death80plusf</t>
-  </si>
-  <si>
-    <t>NatHist_timeSympt_OPL</t>
-  </si>
-  <si>
     <t>Util_Well</t>
   </si>
   <si>
@@ -491,18 +376,6 @@
     <t>TestChar_probFalse</t>
   </si>
   <si>
-    <t>Diag_sensitivity_NGS</t>
-  </si>
-  <si>
-    <t>Diag_specificity_NGS</t>
-  </si>
-  <si>
-    <t>Diag_sensitivity_conventional</t>
-  </si>
-  <si>
-    <t>Diag_specificity_conventional</t>
-  </si>
-  <si>
     <t>TestChar_invasive</t>
   </si>
   <si>
@@ -530,12 +403,6 @@
     <t>Attribute</t>
   </si>
   <si>
-    <t>Demo_startage</t>
-  </si>
-  <si>
-    <t>Demo_cancerhistory</t>
-  </si>
-  <si>
     <t>Clin_COO_ABC</t>
   </si>
   <si>
@@ -620,9 +487,6 @@
     <t>Tx_ProbAdverseEvent_GEP</t>
   </si>
   <si>
-    <t>Tx_Tprob_CRtoRecur</t>
-  </si>
-  <si>
     <t>ABC</t>
   </si>
   <si>
@@ -653,17 +517,47 @@
     <t>Tx_Tprob_CRtoDeath</t>
   </si>
   <si>
-    <t>Tx_Tprob_RecurtoDeath</t>
-  </si>
-  <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>Diag_companion_eligible</t>
+  </si>
+  <si>
+    <t>Diag_Sensitivity_NGS</t>
+  </si>
+  <si>
+    <t>Diag_Specificity_NGS</t>
+  </si>
+  <si>
+    <t>Tx_HR_NewTx_Firstline</t>
+  </si>
+  <si>
+    <t>Tx_HR_NewTx_Secondline</t>
+  </si>
+  <si>
+    <t>Demo_StartAge</t>
+  </si>
+  <si>
+    <t>Demo_CancerHistory</t>
+  </si>
+  <si>
+    <t>Diag_Sensitivity_Conventional</t>
+  </si>
+  <si>
+    <t>Diag_Specificity_Conventional</t>
+  </si>
+  <si>
+    <t>Tx_Tprob_CRtoFail</t>
+  </si>
+  <si>
+    <t>Tx_Tprob_FailtoDeath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,19 +612,6 @@
       <name val="Menlo"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -764,14 +645,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1080,10 +957,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1094,7 +971,7 @@
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1102,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1111,12 +988,12 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1131,9 +1008,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1148,9 +1025,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1162,12 +1039,12 @@
         <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1179,12 +1056,12 @@
         <v>166</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1196,12 +1073,12 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1213,12 +1090,12 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1233,9 +1110,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1250,9 +1127,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1264,12 +1141,12 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1284,12 +1161,12 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1300,121 +1177,122 @@
       <c r="D12">
         <v>180</v>
       </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
       <c r="G12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.95</v>
+      </c>
+      <c r="E15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.95</v>
+      </c>
+      <c r="E16">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.9</v>
+      </c>
+      <c r="E17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.9</v>
+      </c>
+      <c r="E18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>-3.1318000000000001</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.25790000000000002</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0.01</v>
-      </c>
-      <c r="F17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0.87290000000000001</v>
-      </c>
-      <c r="E18">
-        <v>0.22359999999999999</v>
-      </c>
-      <c r="F18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>19</v>
       </c>
       <c r="B19">
         <v>9</v>
@@ -1423,161 +1301,151 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.33</v>
-      </c>
-      <c r="E19">
-        <v>0.1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.95</v>
-      </c>
-      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.4</v>
+      </c>
+      <c r="E21">
+        <v>0.01</v>
+      </c>
+      <c r="G21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.4</v>
+      </c>
+      <c r="E22">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.4</v>
+      </c>
+      <c r="E23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.4</v>
+      </c>
+      <c r="E24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.4</v>
+      </c>
+      <c r="E25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.4</v>
+      </c>
+      <c r="E26">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.9</v>
+      </c>
+      <c r="E27">
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0.95</v>
-      </c>
-      <c r="E21">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0.9</v>
-      </c>
-      <c r="E22">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>0.9</v>
-      </c>
-      <c r="E23">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25">
-        <v>9</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0.4</v>
-      </c>
-      <c r="D26">
-        <v>0.01</v>
-      </c>
-      <c r="G26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>119</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K95">
-    <sortCondition ref="B2:B95"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K90">
+    <sortCondition ref="B2:B90"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1617,480 +1485,480 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43.1</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>43.1</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>254.91</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>250.4</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>59.51</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>59.51</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>9268.5499999999993</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>10758.64</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>9268.5499999999993</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>10758.64</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>21219</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>17525.96</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>7630.33</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>9051.5499999999993</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>19299.16</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>25503.439999999999</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>26059.51</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>18567.71</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>10279.56</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>8660.23</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>38185.449999999997</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>40438.870000000003</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>34925.65</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>22256.47</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>14848.61</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>16238.45</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>29262.14</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>42730.52</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>17066.59</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>20314.990000000002</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>20778.66</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>31106.02</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>11119.52</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>8518</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>16616.98</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>27427.74</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>20778.66</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>31106.02</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>17930.25</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>21977.09</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>591.29</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" t="s">
         <v>12</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5">
-        <v>591.29</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>154</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="3">
         <v>80.67</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="3"/>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>80.67</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" t="s">
         <v>16</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5">
-        <v>80.67</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>154</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="3">
         <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" t="str">
         <f>F25</f>
@@ -2099,37 +1967,37 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="3"/>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="3">
         <v>0</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="3"/>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2142,24 +2010,27 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2170,16 +2041,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>-4.8614649999999999</v>
@@ -2190,16 +2061,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E3">
         <v>-0.5228583</v>
@@ -2210,16 +2081,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E4">
         <v>-3.7219159999999998</v>
@@ -2230,16 +2101,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E5">
         <v>-0.96361240000000004</v>
@@ -2250,16 +2121,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E6">
         <v>-5.4284239999999997</v>
@@ -2270,16 +2141,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E7">
         <v>-0.66112340000000003</v>
@@ -2290,16 +2161,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E8">
         <v>-5.125019</v>
@@ -2310,16 +2181,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E9">
         <v>-0.54901319999999998</v>
@@ -2330,16 +2201,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E10">
         <v>-4.8843170000000002</v>
@@ -2350,16 +2221,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E11">
         <v>-0.6201063</v>
@@ -2370,16 +2241,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E12">
         <v>-3.7219159999999998</v>
@@ -2390,16 +2261,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E13">
         <v>-0.96361240000000004</v>
@@ -2410,16 +2281,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E14">
         <v>-5.3335249999999998</v>
@@ -2430,16 +2301,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E15">
         <v>-0.70301809999999998</v>
@@ -2450,16 +2321,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E16">
         <v>-4.8696770000000003</v>
@@ -2470,16 +2341,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E17">
         <v>-0.65110840000000003</v>
@@ -2490,16 +2361,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E18">
         <v>-4.8604849999999997</v>
@@ -2510,16 +2381,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E19">
         <v>-0.47558</v>
@@ -2530,16 +2401,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E20">
         <v>-3.7219159999999998</v>
@@ -2550,16 +2421,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E21">
         <v>-0.96361240000000004</v>
@@ -2570,16 +2441,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E22">
         <v>-4.8389689999999996</v>
@@ -2590,16 +2461,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E23">
         <v>-0.75679850000000004</v>
@@ -2610,16 +2481,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E24">
         <v>-5.4116799999999996</v>
@@ -2630,16 +2501,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E25">
         <v>-0.4523102</v>
@@ -2650,16 +2521,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E26">
         <v>-7.5961809999999996</v>
@@ -2670,16 +2541,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E27">
         <v>-0.28306179999999997</v>
@@ -2690,16 +2561,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E28">
         <v>-10.722340000000001</v>
@@ -2710,16 +2581,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E29">
         <v>1.65183E-2</v>
@@ -2730,16 +2601,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E30">
         <v>-9.8273209999999995</v>
@@ -2750,16 +2621,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E31">
         <v>1.4131700000000001E-2</v>
@@ -2770,16 +2641,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E32">
         <v>-9.6285810000000005</v>
@@ -2790,16 +2661,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E33">
         <v>-4.5154100000000003E-2</v>
@@ -2810,16 +2681,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E34">
         <v>-5.3542100000000001</v>
@@ -2830,16 +2701,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E35">
         <v>-1.0616540000000001</v>
@@ -2850,16 +2721,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E36">
         <v>-10.722340000000001</v>
@@ -2870,16 +2741,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E37">
         <v>1.65183E-2</v>
@@ -2890,16 +2761,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E38">
         <v>-12.205679999999999</v>
@@ -2910,16 +2781,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E39">
         <v>3.87126E-2</v>
@@ -2930,16 +2801,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E40">
         <v>-9.6285810000000005</v>
@@ -2950,16 +2821,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E41">
         <v>-4.5154100000000003E-2</v>
@@ -2970,16 +2841,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E42">
         <v>-8.7907849999999996</v>
@@ -2990,16 +2861,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E43">
         <v>-5.3880999999999998E-2</v>
@@ -3010,16 +2881,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E44">
         <v>-10.722340000000001</v>
@@ -3030,16 +2901,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E45">
         <v>1.65183E-2</v>
@@ -3050,16 +2921,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E46">
         <v>-9.4201750000000004</v>
@@ -3070,16 +2941,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E47">
         <v>2.1787299999999999E-2</v>
@@ -3090,16 +2961,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E48">
         <v>-9.6285810000000005</v>
@@ -3110,16 +2981,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E49">
         <v>-4.5154100000000003E-2</v>
@@ -3130,16 +3001,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E50">
         <v>-3.2747120000000001</v>
@@ -3150,16 +3021,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E51">
         <v>-0.63537929999999998</v>
@@ -3170,16 +3041,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E52">
         <v>-9.4869240000000001</v>
@@ -3190,16 +3061,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D53" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E53">
         <v>0.70038330000000004</v>
@@ -3210,16 +3081,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D54" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E54">
         <v>-3.1834349999999998</v>
@@ -3230,16 +3101,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D55" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E55">
         <v>-0.75665110000000002</v>
@@ -3250,16 +3121,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E56">
         <v>-3.3841510000000001</v>
@@ -3270,16 +3141,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D57" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E57">
         <v>-0.58586269999999996</v>
@@ -3290,16 +3161,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D58" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E58">
         <v>-3.3393130000000002</v>
@@ -3310,16 +3181,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D59" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E59">
         <v>-0.80166400000000004</v>
@@ -3330,16 +3201,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E60">
         <v>-9.4869240000000001</v>
@@ -3350,16 +3221,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D61" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E61">
         <v>0.70038330000000004</v>
@@ -3370,16 +3241,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D62" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E62">
         <v>-3.1833879999999999</v>
@@ -3390,16 +3261,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D63" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E63">
         <v>-0.83449700000000004</v>
@@ -3410,16 +3281,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D64" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E64">
         <v>-3.6348850000000001</v>
@@ -3430,16 +3301,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D65" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E65">
         <v>-0.51855770000000001</v>
@@ -3450,16 +3321,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E66">
         <v>-3.3733050000000002</v>
@@ -3470,16 +3341,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C67" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E67">
         <v>-0.53891429999999996</v>
@@ -3490,16 +3361,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C68" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D68" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E68">
         <v>-9.4869240000000001</v>
@@ -3510,16 +3381,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D69" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E69">
         <v>0.70038330000000004</v>
@@ -3530,16 +3401,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D70" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E70">
         <v>-3.5435949999999998</v>
@@ -3550,16 +3421,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C71" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D71" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E71">
         <v>-0.47834569999999998</v>
@@ -3570,16 +3441,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C72" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D72" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E72">
         <v>-3.2215929999999999</v>
@@ -3590,16 +3461,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D73" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E73">
         <v>-0.63080709999999995</v>
@@ -3619,7 +3490,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3634,13 +3505,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -3654,36 +3525,36 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3697,16 +3568,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -3720,13 +3591,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -3740,16 +3611,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
         <v>90</v>
       </c>
-      <c r="C6" t="s">
-        <v>104</v>
-      </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3763,16 +3634,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="C7" t="s">
-        <v>104</v>
-      </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3786,16 +3657,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
         <v>90</v>
       </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3809,33 +3680,33 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
         <v>90</v>
       </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -3849,13 +3720,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -3869,36 +3740,36 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3912,16 +3783,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3935,30 +3806,36 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
+      <c r="F15">
+        <v>0.01</v>
+      </c>
+      <c r="G15">
+        <v>5.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3972,16 +3849,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3995,16 +3872,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4018,33 +3895,33 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
         <v>91</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -4058,13 +3935,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -4102,30 +3979,30 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -4133,16 +4010,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4150,16 +4027,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4167,16 +4044,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -4184,16 +4061,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4201,16 +4078,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4218,16 +4095,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4235,10 +4112,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4249,10 +4126,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4263,10 +4140,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4277,10 +4154,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4291,10 +4168,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C13">
         <v>0</v>

--- a/InputParameters.xlsx
+++ b/InputParameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icromwell/Desktop/My Work/Lymphoma/DES Model/DLBCL_DES_COO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B46F3FD-6ADE-F145-9411-1C06680DC7A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED5A09C-B95F-D84F-B3EE-9A06A9BEB0F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13820" yWindow="840" windowWidth="14340" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,24 +469,15 @@
     <t>Util_AdvEvent_Standard</t>
   </si>
   <si>
-    <t>Util_AdvEvent_GEP</t>
-  </si>
-  <si>
     <t>Util_Treatment_Standard</t>
   </si>
   <si>
-    <t>Util_Treatment_GEP</t>
-  </si>
-  <si>
     <t>SysP_Treatment</t>
   </si>
   <si>
     <t>Tx_ProbAdverseEvent_Standard</t>
   </si>
   <si>
-    <t>Tx_ProbAdverseEvent_GEP</t>
-  </si>
-  <si>
     <t>ABC</t>
   </si>
   <si>
@@ -551,6 +542,15 @@
   </si>
   <si>
     <t>Tx_Tprob_FailtoDeath</t>
+  </si>
+  <si>
+    <t>Util_Treatment_NGS</t>
+  </si>
+  <si>
+    <t>Util_AdvEvent_NGS</t>
+  </si>
+  <si>
+    <t>Tx_ProbAdverseEvent_NGS</t>
   </si>
 </sst>
 </file>
@@ -960,7 +960,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -993,41 +993,41 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>58</v>
-      </c>
-      <c r="E2">
-        <v>11</v>
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.33</v>
-      </c>
-      <c r="E3">
-        <v>0.1</v>
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
         <v>87</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
         <v>87</v>
@@ -1061,154 +1061,149 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>87</v>
+        <v>0.33</v>
+      </c>
+      <c r="E6">
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>87</v>
+        <v>58</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
         <v>0.05</v>
-      </c>
-      <c r="E8">
-        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
+        <v>0.9</v>
+      </c>
+      <c r="E9">
         <v>0.05</v>
-      </c>
-      <c r="E9">
-        <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>108</v>
+        <v>0.95</v>
+      </c>
+      <c r="E10">
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>108</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>180</v>
+        <v>0.95</v>
       </c>
       <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>99</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>180</v>
       </c>
       <c r="E13">
-        <v>0.1</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1227,103 +1222,111 @@
         <v>123</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="E15">
-        <v>0.05</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>0.95</v>
-      </c>
-      <c r="E16">
-        <v>0.05</v>
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>0.9</v>
+        <v>0.05</v>
       </c>
       <c r="E17">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0.9</v>
+        <v>0.05</v>
       </c>
       <c r="E18">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>99</v>
+        <v>0.4</v>
+      </c>
+      <c r="E20">
+        <v>0.01</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1337,13 +1340,10 @@
       <c r="E21">
         <v>0.01</v>
       </c>
-      <c r="G21" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1357,10 +1357,13 @@
       <c r="E22">
         <v>0.01</v>
       </c>
+      <c r="G22" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1377,24 +1380,24 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0.4</v>
-      </c>
-      <c r="E24">
-        <v>0.01</v>
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1428,24 +1431,21 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0.9</v>
-      </c>
-      <c r="E27">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K90">
-    <sortCondition ref="B2:B90"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K27">
+    <sortCondition ref="A2:A27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2011,7 +2011,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A73"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2024,7 +2024,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -2041,16 +2041,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E2">
         <v>-4.8614649999999999</v>
@@ -2061,16 +2061,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E3">
         <v>-0.5228583</v>
@@ -2081,16 +2081,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E4">
         <v>-3.7219159999999998</v>
@@ -2101,16 +2101,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E5">
         <v>-0.96361240000000004</v>
@@ -2121,16 +2121,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E6">
         <v>-5.4284239999999997</v>
@@ -2141,16 +2141,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E7">
         <v>-0.66112340000000003</v>
@@ -2161,16 +2161,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E8">
         <v>-5.125019</v>
@@ -2181,16 +2181,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E9">
         <v>-0.54901319999999998</v>
@@ -2201,16 +2201,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E10">
         <v>-4.8843170000000002</v>
@@ -2221,16 +2221,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E11">
         <v>-0.6201063</v>
@@ -2241,16 +2241,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E12">
         <v>-3.7219159999999998</v>
@@ -2261,16 +2261,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E13">
         <v>-0.96361240000000004</v>
@@ -2281,16 +2281,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E14">
         <v>-5.3335249999999998</v>
@@ -2301,16 +2301,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E15">
         <v>-0.70301809999999998</v>
@@ -2321,16 +2321,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E16">
         <v>-4.8696770000000003</v>
@@ -2341,16 +2341,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E17">
         <v>-0.65110840000000003</v>
@@ -2361,16 +2361,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E18">
         <v>-4.8604849999999997</v>
@@ -2381,16 +2381,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E19">
         <v>-0.47558</v>
@@ -2401,16 +2401,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E20">
         <v>-3.7219159999999998</v>
@@ -2421,16 +2421,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E21">
         <v>-0.96361240000000004</v>
@@ -2441,16 +2441,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E22">
         <v>-4.8389689999999996</v>
@@ -2461,16 +2461,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E23">
         <v>-0.75679850000000004</v>
@@ -2481,16 +2481,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E24">
         <v>-5.4116799999999996</v>
@@ -2501,16 +2501,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E25">
         <v>-0.4523102</v>
@@ -2521,16 +2521,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E26">
         <v>-7.5961809999999996</v>
@@ -2541,16 +2541,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E27">
         <v>-0.28306179999999997</v>
@@ -2561,16 +2561,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E28">
         <v>-10.722340000000001</v>
@@ -2581,16 +2581,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E29">
         <v>1.65183E-2</v>
@@ -2601,16 +2601,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E30">
         <v>-9.8273209999999995</v>
@@ -2621,16 +2621,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E31">
         <v>1.4131700000000001E-2</v>
@@ -2641,16 +2641,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E32">
         <v>-9.6285810000000005</v>
@@ -2661,16 +2661,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E33">
         <v>-4.5154100000000003E-2</v>
@@ -2681,16 +2681,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E34">
         <v>-5.3542100000000001</v>
@@ -2701,16 +2701,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E35">
         <v>-1.0616540000000001</v>
@@ -2721,16 +2721,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E36">
         <v>-10.722340000000001</v>
@@ -2741,16 +2741,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E37">
         <v>1.65183E-2</v>
@@ -2761,16 +2761,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E38">
         <v>-12.205679999999999</v>
@@ -2781,16 +2781,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E39">
         <v>3.87126E-2</v>
@@ -2801,16 +2801,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E40">
         <v>-9.6285810000000005</v>
@@ -2821,16 +2821,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E41">
         <v>-4.5154100000000003E-2</v>
@@ -2841,16 +2841,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E42">
         <v>-8.7907849999999996</v>
@@ -2861,16 +2861,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E43">
         <v>-5.3880999999999998E-2</v>
@@ -2881,16 +2881,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E44">
         <v>-10.722340000000001</v>
@@ -2901,16 +2901,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E45">
         <v>1.65183E-2</v>
@@ -2921,16 +2921,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E46">
         <v>-9.4201750000000004</v>
@@ -2941,16 +2941,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E47">
         <v>2.1787299999999999E-2</v>
@@ -2961,16 +2961,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D48" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E48">
         <v>-9.6285810000000005</v>
@@ -2981,16 +2981,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E49">
         <v>-4.5154100000000003E-2</v>
@@ -3001,16 +3001,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E50">
         <v>-3.2747120000000001</v>
@@ -3021,16 +3021,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D51" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E51">
         <v>-0.63537929999999998</v>
@@ -3041,16 +3041,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E52">
         <v>-9.4869240000000001</v>
@@ -3061,16 +3061,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E53">
         <v>0.70038330000000004</v>
@@ -3081,16 +3081,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E54">
         <v>-3.1834349999999998</v>
@@ -3101,16 +3101,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E55">
         <v>-0.75665110000000002</v>
@@ -3121,16 +3121,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E56">
         <v>-3.3841510000000001</v>
@@ -3141,16 +3141,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E57">
         <v>-0.58586269999999996</v>
@@ -3161,16 +3161,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E58">
         <v>-3.3393130000000002</v>
@@ -3181,16 +3181,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E59">
         <v>-0.80166400000000004</v>
@@ -3201,16 +3201,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E60">
         <v>-9.4869240000000001</v>
@@ -3221,16 +3221,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E61">
         <v>0.70038330000000004</v>
@@ -3241,16 +3241,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E62">
         <v>-3.1833879999999999</v>
@@ -3261,16 +3261,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C63" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E63">
         <v>-0.83449700000000004</v>
@@ -3281,16 +3281,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E64">
         <v>-3.6348850000000001</v>
@@ -3301,16 +3301,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D65" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E65">
         <v>-0.51855770000000001</v>
@@ -3321,16 +3321,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C66" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E66">
         <v>-3.3733050000000002</v>
@@ -3341,16 +3341,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D67" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E67">
         <v>-0.53891429999999996</v>
@@ -3361,16 +3361,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C68" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D68" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E68">
         <v>-9.4869240000000001</v>
@@ -3381,16 +3381,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C69" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D69" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E69">
         <v>0.70038330000000004</v>
@@ -3401,16 +3401,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C70" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D70" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E70">
         <v>-3.5435949999999998</v>
@@ -3421,16 +3421,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C71" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E71">
         <v>-0.47834569999999998</v>
@@ -3441,16 +3441,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E72">
         <v>-3.2215929999999999</v>
@@ -3461,16 +3461,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C73" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D73" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E73">
         <v>-0.63080709999999995</v>

--- a/InputParameters.xlsx
+++ b/InputParameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icromwell/Desktop/My Work/Lymphoma/DES Model/DLBCL_DES_COO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED5A09C-B95F-D84F-B3EE-9A06A9BEB0F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B46F3FD-6ADE-F145-9411-1C06680DC7A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13820" yWindow="840" windowWidth="14340" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,15 +469,24 @@
     <t>Util_AdvEvent_Standard</t>
   </si>
   <si>
+    <t>Util_AdvEvent_GEP</t>
+  </si>
+  <si>
     <t>Util_Treatment_Standard</t>
   </si>
   <si>
+    <t>Util_Treatment_GEP</t>
+  </si>
+  <si>
     <t>SysP_Treatment</t>
   </si>
   <si>
     <t>Tx_ProbAdverseEvent_Standard</t>
   </si>
   <si>
+    <t>Tx_ProbAdverseEvent_GEP</t>
+  </si>
+  <si>
     <t>ABC</t>
   </si>
   <si>
@@ -542,15 +551,6 @@
   </si>
   <si>
     <t>Tx_Tprob_FailtoDeath</t>
-  </si>
-  <si>
-    <t>Util_Treatment_NGS</t>
-  </si>
-  <si>
-    <t>Util_AdvEvent_NGS</t>
-  </si>
-  <si>
-    <t>Tx_ProbAdverseEvent_NGS</t>
   </si>
 </sst>
 </file>
@@ -960,7 +960,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -993,41 +993,41 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>108</v>
-      </c>
-      <c r="F2" t="s">
-        <v>87</v>
+        <v>58</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>87</v>
+        <v>0.33</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
         <v>87</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
         <v>87</v>
@@ -1061,149 +1061,154 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.33</v>
-      </c>
-      <c r="E6">
-        <v>0.1</v>
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>58</v>
-      </c>
-      <c r="E7">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>0.9</v>
+        <v>0.05</v>
       </c>
       <c r="E8">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>0.9</v>
+        <v>0.05</v>
       </c>
       <c r="E9">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>0.95</v>
-      </c>
-      <c r="E10">
-        <v>0.05</v>
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>0.9</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>0.05</v>
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>0.95</v>
+        <v>180</v>
       </c>
       <c r="E12">
-        <v>0.05</v>
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>180</v>
+        <v>0.5</v>
       </c>
       <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>99</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1222,111 +1227,103 @@
         <v>123</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="E15">
-        <v>0.1</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="5"/>
+        <v>0.05</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="G16" t="s">
-        <v>106</v>
+        <v>0.95</v>
+      </c>
+      <c r="E16">
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17">
+        <v>0.9</v>
+      </c>
+      <c r="E17">
         <v>0.05</v>
-      </c>
-      <c r="E17">
-        <v>0.01</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
+        <v>0.9</v>
+      </c>
+      <c r="E18">
         <v>0.05</v>
-      </c>
-      <c r="E18">
-        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.4</v>
-      </c>
-      <c r="E20">
-        <v>0.01</v>
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1340,10 +1337,13 @@
       <c r="E21">
         <v>0.01</v>
       </c>
+      <c r="G21" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1357,13 +1357,10 @@
       <c r="E22">
         <v>0.01</v>
       </c>
-      <c r="G22" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1380,24 +1377,24 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>99</v>
+        <v>0.4</v>
+      </c>
+      <c r="E24">
+        <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1431,21 +1428,24 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.9</v>
+      </c>
+      <c r="E27">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K27">
-    <sortCondition ref="A2:A27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K90">
+    <sortCondition ref="B2:B90"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2011,7 +2011,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="A2" sqref="A2:A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2024,7 +2024,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -2041,16 +2041,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>-4.8614649999999999</v>
@@ -2061,16 +2061,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E3">
         <v>-0.5228583</v>
@@ -2081,16 +2081,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
         <v>112</v>
-      </c>
-      <c r="D4" t="s">
-        <v>109</v>
       </c>
       <c r="E4">
         <v>-3.7219159999999998</v>
@@ -2101,16 +2101,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E5">
         <v>-0.96361240000000004</v>
@@ -2121,16 +2121,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
         <v>114</v>
       </c>
-      <c r="C6" t="s">
-        <v>111</v>
-      </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E6">
         <v>-5.4284239999999997</v>
@@ -2141,16 +2141,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
         <v>114</v>
       </c>
-      <c r="C7" t="s">
-        <v>111</v>
-      </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E7">
         <v>-0.66112340000000003</v>
@@ -2161,16 +2161,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E8">
         <v>-5.125019</v>
@@ -2181,16 +2181,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" t="s">
         <v>113</v>
-      </c>
-      <c r="D9" t="s">
-        <v>110</v>
       </c>
       <c r="E9">
         <v>-0.54901319999999998</v>
@@ -2201,16 +2201,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E10">
         <v>-4.8843170000000002</v>
@@ -2221,16 +2221,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E11">
         <v>-0.6201063</v>
@@ -2241,16 +2241,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
         <v>115</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>112</v>
-      </c>
-      <c r="D12" t="s">
-        <v>109</v>
       </c>
       <c r="E12">
         <v>-3.7219159999999998</v>
@@ -2261,16 +2261,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
         <v>115</v>
       </c>
-      <c r="C13" t="s">
-        <v>112</v>
-      </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E13">
         <v>-0.96361240000000004</v>
@@ -2281,16 +2281,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E14">
         <v>-5.3335249999999998</v>
@@ -2301,16 +2301,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E15">
         <v>-0.70301809999999998</v>
@@ -2321,16 +2321,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E16">
         <v>-4.8696770000000003</v>
@@ -2341,16 +2341,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
         <v>113</v>
-      </c>
-      <c r="D17" t="s">
-        <v>110</v>
       </c>
       <c r="E17">
         <v>-0.65110840000000003</v>
@@ -2361,16 +2361,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E18">
         <v>-4.8604849999999997</v>
@@ -2381,16 +2381,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E19">
         <v>-0.47558</v>
@@ -2401,16 +2401,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" t="s">
         <v>112</v>
-      </c>
-      <c r="D20" t="s">
-        <v>109</v>
       </c>
       <c r="E20">
         <v>-3.7219159999999998</v>
@@ -2421,16 +2421,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E21">
         <v>-0.96361240000000004</v>
@@ -2441,16 +2441,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E22">
         <v>-4.8389689999999996</v>
@@ -2461,16 +2461,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E23">
         <v>-0.75679850000000004</v>
@@ -2481,16 +2481,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" t="s">
         <v>116</v>
       </c>
-      <c r="C24" t="s">
-        <v>113</v>
-      </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E24">
         <v>-5.4116799999999996</v>
@@ -2501,16 +2501,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" t="s">
         <v>116</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>113</v>
-      </c>
-      <c r="D25" t="s">
-        <v>110</v>
       </c>
       <c r="E25">
         <v>-0.4523102</v>
@@ -2521,16 +2521,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
         <v>117</v>
       </c>
-      <c r="B26" t="s">
-        <v>114</v>
-      </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E26">
         <v>-7.5961809999999996</v>
@@ -2541,16 +2541,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" t="s">
         <v>117</v>
       </c>
-      <c r="B27" t="s">
-        <v>114</v>
-      </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E27">
         <v>-0.28306179999999997</v>
@@ -2561,16 +2561,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="B28" t="s">
-        <v>114</v>
-      </c>
       <c r="C28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" t="s">
         <v>112</v>
-      </c>
-      <c r="D28" t="s">
-        <v>109</v>
       </c>
       <c r="E28">
         <v>-10.722340000000001</v>
@@ -2581,16 +2581,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" t="s">
         <v>117</v>
       </c>
-      <c r="B29" t="s">
-        <v>114</v>
-      </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E29">
         <v>1.65183E-2</v>
@@ -2601,16 +2601,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>114</v>
       </c>
-      <c r="C30" t="s">
-        <v>111</v>
-      </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E30">
         <v>-9.8273209999999995</v>
@@ -2621,16 +2621,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
         <v>117</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>114</v>
       </c>
-      <c r="C31" t="s">
-        <v>111</v>
-      </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E31">
         <v>1.4131700000000001E-2</v>
@@ -2641,16 +2641,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" t="s">
         <v>117</v>
       </c>
-      <c r="B32" t="s">
-        <v>114</v>
-      </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E32">
         <v>-9.6285810000000005</v>
@@ -2661,16 +2661,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" t="s">
         <v>117</v>
       </c>
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
       <c r="C33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" t="s">
         <v>113</v>
-      </c>
-      <c r="D33" t="s">
-        <v>110</v>
       </c>
       <c r="E33">
         <v>-4.5154100000000003E-2</v>
@@ -2681,16 +2681,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E34">
         <v>-5.3542100000000001</v>
@@ -2701,16 +2701,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E35">
         <v>-1.0616540000000001</v>
@@ -2721,16 +2721,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
         <v>115</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>112</v>
-      </c>
-      <c r="D36" t="s">
-        <v>109</v>
       </c>
       <c r="E36">
         <v>-10.722340000000001</v>
@@ -2741,16 +2741,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" t="s">
         <v>115</v>
       </c>
-      <c r="C37" t="s">
-        <v>112</v>
-      </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E37">
         <v>1.65183E-2</v>
@@ -2761,16 +2761,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E38">
         <v>-12.205679999999999</v>
@@ -2781,16 +2781,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E39">
         <v>3.87126E-2</v>
@@ -2801,16 +2801,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E40">
         <v>-9.6285810000000005</v>
@@ -2821,16 +2821,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" t="s">
         <v>113</v>
-      </c>
-      <c r="D41" t="s">
-        <v>110</v>
       </c>
       <c r="E41">
         <v>-4.5154100000000003E-2</v>
@@ -2841,16 +2841,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E42">
         <v>-8.7907849999999996</v>
@@ -2861,16 +2861,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E43">
         <v>-5.3880999999999998E-2</v>
@@ -2881,16 +2881,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" t="s">
         <v>112</v>
-      </c>
-      <c r="D44" t="s">
-        <v>109</v>
       </c>
       <c r="E44">
         <v>-10.722340000000001</v>
@@ -2901,16 +2901,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E45">
         <v>1.65183E-2</v>
@@ -2921,16 +2921,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E46">
         <v>-9.4201750000000004</v>
@@ -2941,16 +2941,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E47">
         <v>2.1787299999999999E-2</v>
@@ -2961,16 +2961,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" t="s">
         <v>116</v>
       </c>
-      <c r="C48" t="s">
-        <v>113</v>
-      </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E48">
         <v>-9.6285810000000005</v>
@@ -2981,16 +2981,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" t="s">
         <v>116</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>113</v>
-      </c>
-      <c r="D49" t="s">
-        <v>110</v>
       </c>
       <c r="E49">
         <v>-4.5154100000000003E-2</v>
@@ -3001,16 +3001,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E50">
         <v>-3.2747120000000001</v>
@@ -3021,16 +3021,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E51">
         <v>-0.63537929999999998</v>
@@ -3041,16 +3041,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" t="s">
         <v>112</v>
-      </c>
-      <c r="D52" t="s">
-        <v>109</v>
       </c>
       <c r="E52">
         <v>-9.4869240000000001</v>
@@ -3061,16 +3061,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E53">
         <v>0.70038330000000004</v>
@@ -3081,16 +3081,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
         <v>114</v>
       </c>
-      <c r="C54" t="s">
-        <v>111</v>
-      </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E54">
         <v>-3.1834349999999998</v>
@@ -3101,16 +3101,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
         <v>114</v>
       </c>
-      <c r="C55" t="s">
-        <v>111</v>
-      </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E55">
         <v>-0.75665110000000002</v>
@@ -3121,16 +3121,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E56">
         <v>-3.3841510000000001</v>
@@ -3141,16 +3141,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" t="s">
         <v>113</v>
-      </c>
-      <c r="D57" t="s">
-        <v>110</v>
       </c>
       <c r="E57">
         <v>-0.58586269999999996</v>
@@ -3161,16 +3161,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E58">
         <v>-3.3393130000000002</v>
@@ -3181,16 +3181,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E59">
         <v>-0.80166400000000004</v>
@@ -3201,16 +3201,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" t="s">
         <v>115</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>112</v>
-      </c>
-      <c r="D60" t="s">
-        <v>109</v>
       </c>
       <c r="E60">
         <v>-9.4869240000000001</v>
@@ -3221,16 +3221,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" t="s">
         <v>115</v>
       </c>
-      <c r="C61" t="s">
-        <v>112</v>
-      </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E61">
         <v>0.70038330000000004</v>
@@ -3241,16 +3241,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E62">
         <v>-3.1833879999999999</v>
@@ -3261,16 +3261,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E63">
         <v>-0.83449700000000004</v>
@@ -3281,16 +3281,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E64">
         <v>-3.6348850000000001</v>
@@ -3301,16 +3301,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C65" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" t="s">
         <v>113</v>
-      </c>
-      <c r="D65" t="s">
-        <v>110</v>
       </c>
       <c r="E65">
         <v>-0.51855770000000001</v>
@@ -3321,16 +3321,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E66">
         <v>-3.3733050000000002</v>
@@ -3341,16 +3341,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C67" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E67">
         <v>-0.53891429999999996</v>
@@ -3361,16 +3361,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C68" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" t="s">
         <v>112</v>
-      </c>
-      <c r="D68" t="s">
-        <v>109</v>
       </c>
       <c r="E68">
         <v>-9.4869240000000001</v>
@@ -3381,16 +3381,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D69" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E69">
         <v>0.70038330000000004</v>
@@ -3401,16 +3401,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C70" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D70" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E70">
         <v>-3.5435949999999998</v>
@@ -3421,16 +3421,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D71" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E71">
         <v>-0.47834569999999998</v>
@@ -3441,16 +3441,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B72" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" t="s">
         <v>116</v>
       </c>
-      <c r="C72" t="s">
-        <v>113</v>
-      </c>
       <c r="D72" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E72">
         <v>-3.2215929999999999</v>
@@ -3461,16 +3461,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" t="s">
         <v>116</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>113</v>
-      </c>
-      <c r="D73" t="s">
-        <v>110</v>
       </c>
       <c r="E73">
         <v>-0.63080709999999995</v>

--- a/InputParameters.xlsx
+++ b/InputParameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icromwell/Desktop/My Work/Lymphoma/DES Model/DLBCL_DES_COO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B46F3FD-6ADE-F145-9411-1C06680DC7A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133F1961-581B-204C-967A-851B6F7997F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13820" yWindow="840" windowWidth="14340" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="146">
   <si>
     <t>TypeNo</t>
   </si>
@@ -442,12 +442,6 @@
     <t>addspecificity</t>
   </si>
   <si>
-    <t>Tx_MaxCycle</t>
-  </si>
-  <si>
-    <t>Tx_TimeTreat</t>
-  </si>
-  <si>
     <t>Folup_Time_AppInterval</t>
   </si>
   <si>
@@ -466,27 +460,6 @@
     <t>Util_FollowUp</t>
   </si>
   <si>
-    <t>Util_AdvEvent_Standard</t>
-  </si>
-  <si>
-    <t>Util_AdvEvent_GEP</t>
-  </si>
-  <si>
-    <t>Util_Treatment_Standard</t>
-  </si>
-  <si>
-    <t>Util_Treatment_GEP</t>
-  </si>
-  <si>
-    <t>SysP_Treatment</t>
-  </si>
-  <si>
-    <t>Tx_ProbAdverseEvent_Standard</t>
-  </si>
-  <si>
-    <t>Tx_ProbAdverseEvent_GEP</t>
-  </si>
-  <si>
     <t>ABC</t>
   </si>
   <si>
@@ -520,21 +493,12 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Diag_companion_eligible</t>
-  </si>
-  <si>
     <t>Diag_Sensitivity_NGS</t>
   </si>
   <si>
     <t>Diag_Specificity_NGS</t>
   </si>
   <si>
-    <t>Tx_HR_NewTx_Firstline</t>
-  </si>
-  <si>
-    <t>Tx_HR_NewTx_Secondline</t>
-  </si>
-  <si>
     <t>Demo_StartAge</t>
   </si>
   <si>
@@ -551,6 +515,81 @@
   </si>
   <si>
     <t>Tx_Tprob_FailtoDeath</t>
+  </si>
+  <si>
+    <t>Glb_GenTTE</t>
+  </si>
+  <si>
+    <t>Diag_CompanionEligible</t>
+  </si>
+  <si>
+    <t>Util_FollowUp_Recur</t>
+  </si>
+  <si>
+    <t>SysP_TxFirstLine</t>
+  </si>
+  <si>
+    <t>SysP_TxSecondLine</t>
+  </si>
+  <si>
+    <t>Tx_First_ProbAdverseEvent_NGS</t>
+  </si>
+  <si>
+    <t>Tx_First_ProbAdverseEvent_Standard</t>
+  </si>
+  <si>
+    <t>Tx_First_TimeTreat</t>
+  </si>
+  <si>
+    <t>Tx_First_MaxCycle_NGS</t>
+  </si>
+  <si>
+    <t>Tx_First_MaxCycle</t>
+  </si>
+  <si>
+    <t>Tx_Second_HR_NewTx</t>
+  </si>
+  <si>
+    <t>Tx_First_HR_NewTx</t>
+  </si>
+  <si>
+    <t>Tx_Second_TimeTreat</t>
+  </si>
+  <si>
+    <t>Tx_Second_MaxCycle</t>
+  </si>
+  <si>
+    <t>Tx_Second_MaxCycle_NGS</t>
+  </si>
+  <si>
+    <t>Tx_Second_ProbAdverseEvent_NGS</t>
+  </si>
+  <si>
+    <t>Tx_Second_ProbAdverseEvent_Standard</t>
+  </si>
+  <si>
+    <t>Util_First_AdvEvent_NGS</t>
+  </si>
+  <si>
+    <t>Util_First_AdvEvent_Standard</t>
+  </si>
+  <si>
+    <t>Util_First_Treatment_NGS</t>
+  </si>
+  <si>
+    <t>Util_First_Treatment_Standard</t>
+  </si>
+  <si>
+    <t>Util_Second_AdvEvent_NGS</t>
+  </si>
+  <si>
+    <t>Util_Second_AdvEvent_Standard</t>
+  </si>
+  <si>
+    <t>Util_Second_Treatment_NGS</t>
+  </si>
+  <si>
+    <t>Util_Second_Treatment_Standard</t>
   </si>
 </sst>
 </file>
@@ -957,10 +996,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -993,41 +1032,41 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>58</v>
-      </c>
-      <c r="E2">
-        <v>11</v>
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.33</v>
-      </c>
-      <c r="E3">
-        <v>0.1</v>
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1036,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
         <v>87</v>
@@ -1044,7 +1083,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1053,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
         <v>87</v>
@@ -1061,154 +1100,149 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>87</v>
+        <v>0.33</v>
+      </c>
+      <c r="E6">
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>87</v>
+        <v>58</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
         <v>0.05</v>
-      </c>
-      <c r="E8">
-        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
+        <v>0.9</v>
+      </c>
+      <c r="E9">
         <v>0.05</v>
-      </c>
-      <c r="E9">
-        <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>108</v>
+        <v>0.95</v>
+      </c>
+      <c r="E10">
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>108</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>180</v>
+        <v>0.95</v>
       </c>
       <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>99</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>180</v>
       </c>
       <c r="E13">
-        <v>0.1</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1219,111 +1253,134 @@
       <c r="E14">
         <v>0.1</v>
       </c>
+      <c r="G14" t="s">
+        <v>121</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="E15">
-        <v>0.05</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
         <v>124</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0.95</v>
-      </c>
-      <c r="E16">
-        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>0.9</v>
+        <v>0.05</v>
       </c>
       <c r="E17">
-        <v>0.05</v>
+        <v>0.01</v>
+      </c>
+      <c r="G17" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0.9</v>
+        <v>0.05</v>
       </c>
       <c r="E18">
-        <v>0.05</v>
+        <v>0.01</v>
+      </c>
+      <c r="G18" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.4</v>
+      </c>
+      <c r="E20">
+        <v>0.01</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1338,12 +1395,12 @@
         <v>0.01</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1357,10 +1414,13 @@
       <c r="E22">
         <v>0.01</v>
       </c>
+      <c r="G22" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1374,27 +1434,30 @@
       <c r="E23">
         <v>0.01</v>
       </c>
+      <c r="G23" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0.4</v>
-      </c>
-      <c r="E24">
-        <v>0.01</v>
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1408,10 +1471,13 @@
       <c r="E25">
         <v>0.01</v>
       </c>
+      <c r="G25" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1425,27 +1491,238 @@
       <c r="E26">
         <v>0.01</v>
       </c>
+      <c r="G26" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0.9</v>
-      </c>
-      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0.4</v>
+      </c>
+      <c r="E29">
+        <v>0.01</v>
+      </c>
+      <c r="G29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0.4</v>
+      </c>
+      <c r="E30">
+        <v>0.01</v>
+      </c>
+      <c r="G30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0.4</v>
+      </c>
+      <c r="E31">
+        <v>0.01</v>
+      </c>
+      <c r="G31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0.4</v>
+      </c>
+      <c r="E32">
+        <v>0.01</v>
+      </c>
+      <c r="G32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.4</v>
+      </c>
+      <c r="E33">
+        <v>0.01</v>
+      </c>
+      <c r="G33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
         <v>0.05</v>
       </c>
+      <c r="E37">
+        <v>0.01</v>
+      </c>
+      <c r="G37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>0.05</v>
+      </c>
+      <c r="E38">
+        <v>0.01</v>
+      </c>
+      <c r="G38" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K90">
-    <sortCondition ref="B2:B90"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K27">
+    <sortCondition ref="A2:A27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2011,7 +2288,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A73"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2024,7 +2301,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -2041,16 +2318,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E2">
         <v>-4.8614649999999999</v>
@@ -2061,16 +2338,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E3">
         <v>-0.5228583</v>
@@ -2081,16 +2358,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E4">
         <v>-3.7219159999999998</v>
@@ -2101,16 +2378,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E5">
         <v>-0.96361240000000004</v>
@@ -2121,16 +2398,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E6">
         <v>-5.4284239999999997</v>
@@ -2141,16 +2418,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E7">
         <v>-0.66112340000000003</v>
@@ -2161,16 +2438,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>-5.125019</v>
@@ -2181,16 +2458,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>-0.54901319999999998</v>
@@ -2201,16 +2478,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E10">
         <v>-4.8843170000000002</v>
@@ -2221,16 +2498,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E11">
         <v>-0.6201063</v>
@@ -2241,16 +2518,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E12">
         <v>-3.7219159999999998</v>
@@ -2261,16 +2538,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E13">
         <v>-0.96361240000000004</v>
@@ -2281,16 +2558,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E14">
         <v>-5.3335249999999998</v>
@@ -2301,16 +2578,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E15">
         <v>-0.70301809999999998</v>
@@ -2321,16 +2598,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E16">
         <v>-4.8696770000000003</v>
@@ -2341,16 +2618,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E17">
         <v>-0.65110840000000003</v>
@@ -2361,16 +2638,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E18">
         <v>-4.8604849999999997</v>
@@ -2381,16 +2658,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E19">
         <v>-0.47558</v>
@@ -2401,16 +2678,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E20">
         <v>-3.7219159999999998</v>
@@ -2421,16 +2698,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E21">
         <v>-0.96361240000000004</v>
@@ -2441,16 +2718,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E22">
         <v>-4.8389689999999996</v>
@@ -2461,16 +2738,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E23">
         <v>-0.75679850000000004</v>
@@ -2481,16 +2758,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E24">
         <v>-5.4116799999999996</v>
@@ -2501,16 +2778,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E25">
         <v>-0.4523102</v>
@@ -2521,16 +2798,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E26">
         <v>-7.5961809999999996</v>
@@ -2541,16 +2818,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E27">
         <v>-0.28306179999999997</v>
@@ -2561,16 +2838,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E28">
         <v>-10.722340000000001</v>
@@ -2581,16 +2858,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E29">
         <v>1.65183E-2</v>
@@ -2601,16 +2878,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E30">
         <v>-9.8273209999999995</v>
@@ -2621,16 +2898,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E31">
         <v>1.4131700000000001E-2</v>
@@ -2641,16 +2918,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E32">
         <v>-9.6285810000000005</v>
@@ -2661,16 +2938,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E33">
         <v>-4.5154100000000003E-2</v>
@@ -2681,16 +2958,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E34">
         <v>-5.3542100000000001</v>
@@ -2701,16 +2978,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E35">
         <v>-1.0616540000000001</v>
@@ -2721,16 +2998,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E36">
         <v>-10.722340000000001</v>
@@ -2741,16 +3018,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E37">
         <v>1.65183E-2</v>
@@ -2761,16 +3038,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E38">
         <v>-12.205679999999999</v>
@@ -2781,16 +3058,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E39">
         <v>3.87126E-2</v>
@@ -2801,16 +3078,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E40">
         <v>-9.6285810000000005</v>
@@ -2821,16 +3098,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E41">
         <v>-4.5154100000000003E-2</v>
@@ -2841,16 +3118,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E42">
         <v>-8.7907849999999996</v>
@@ -2861,16 +3138,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E43">
         <v>-5.3880999999999998E-2</v>
@@ -2881,16 +3158,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E44">
         <v>-10.722340000000001</v>
@@ -2901,16 +3178,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E45">
         <v>1.65183E-2</v>
@@ -2921,16 +3198,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E46">
         <v>-9.4201750000000004</v>
@@ -2941,16 +3218,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E47">
         <v>2.1787299999999999E-2</v>
@@ -2961,16 +3238,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D48" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E48">
         <v>-9.6285810000000005</v>
@@ -2981,16 +3258,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E49">
         <v>-4.5154100000000003E-2</v>
@@ -3001,16 +3278,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E50">
         <v>-3.2747120000000001</v>
@@ -3021,16 +3298,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D51" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E51">
         <v>-0.63537929999999998</v>
@@ -3041,16 +3318,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E52">
         <v>-9.4869240000000001</v>
@@ -3061,16 +3338,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E53">
         <v>0.70038330000000004</v>
@@ -3081,16 +3358,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D54" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E54">
         <v>-3.1834349999999998</v>
@@ -3101,16 +3378,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D55" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E55">
         <v>-0.75665110000000002</v>
@@ -3121,16 +3398,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E56">
         <v>-3.3841510000000001</v>
@@ -3141,16 +3418,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E57">
         <v>-0.58586269999999996</v>
@@ -3161,16 +3438,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E58">
         <v>-3.3393130000000002</v>
@@ -3181,16 +3458,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E59">
         <v>-0.80166400000000004</v>
@@ -3201,16 +3478,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E60">
         <v>-9.4869240000000001</v>
@@ -3221,16 +3498,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E61">
         <v>0.70038330000000004</v>
@@ -3241,16 +3518,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E62">
         <v>-3.1833879999999999</v>
@@ -3261,16 +3538,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E63">
         <v>-0.83449700000000004</v>
@@ -3281,16 +3558,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E64">
         <v>-3.6348850000000001</v>
@@ -3301,16 +3578,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D65" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E65">
         <v>-0.51855770000000001</v>
@@ -3321,16 +3598,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E66">
         <v>-3.3733050000000002</v>
@@ -3341,16 +3618,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D67" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E67">
         <v>-0.53891429999999996</v>
@@ -3361,16 +3638,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C68" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D68" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E68">
         <v>-9.4869240000000001</v>
@@ -3381,16 +3658,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C69" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D69" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E69">
         <v>0.70038330000000004</v>
@@ -3401,16 +3678,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D70" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E70">
         <v>-3.5435949999999998</v>
@@ -3421,16 +3698,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C71" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D71" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E71">
         <v>-0.47834569999999998</v>
@@ -3441,16 +3718,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C72" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E72">
         <v>-3.2215929999999999</v>
@@ -3461,16 +3738,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C73" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D73" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E73">
         <v>-0.63080709999999995</v>

--- a/InputParameters.xlsx
+++ b/InputParameters.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icromwell/Desktop/My Work/Lymphoma/DES Model/DLBCL_DES_COO/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133F1961-581B-204C-967A-851B6F7997F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13820" yWindow="840" windowWidth="14340" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13815" yWindow="840" windowWidth="14340" windowHeight="14265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <sheet name="PrefCoeffs" sheetId="4" r:id="rId4"/>
     <sheet name="TestChars" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -38,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ian Cromwell</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +45,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ian Cromwell:</t>
         </r>
@@ -60,7 +54,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1 - Probability
@@ -76,17 +70,43 @@
         </r>
       </text>
     </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ian Cromwell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Only Dirichlet-distributed values (TypeNo = 5) use this value. It can be any positive integer you want, as long as the Dirichlet values have the same number.
+So, for example, the "Clin_COO" group of variables all need to have the same VarNo. For the other variables in this version of the model, VarNo is completely arbitrary</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
+    <author>Ian Cromwell</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,17 +131,41 @@
         </r>
       </text>
     </comment>
+    <comment ref="C1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ian Cromwell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Only used for Dirichlet variables</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ian Cromwell</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="128">
   <si>
     <t>TypeNo</t>
   </si>
@@ -169,54 +213,9 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Dental Appointment</t>
-  </si>
-  <si>
-    <t>ScreenAppt</t>
-  </si>
-  <si>
     <t>Origin</t>
   </si>
   <si>
-    <t>Biopsy</t>
-  </si>
-  <si>
-    <t>OPL surveillance appointment</t>
-  </si>
-  <si>
-    <t>OPLmanage</t>
-  </si>
-  <si>
-    <t>Diagnostic Workup</t>
-  </si>
-  <si>
-    <t>IncidentCancer</t>
-  </si>
-  <si>
-    <t>Follow-up appointment - 1 to 3</t>
-  </si>
-  <si>
-    <t>Follow-up appointment - 3 to 5</t>
-  </si>
-  <si>
-    <t>Follow-up appointment - 5 to 10</t>
-  </si>
-  <si>
-    <t>Followup</t>
-  </si>
-  <si>
-    <t>Follow-up appointment - final</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>Death from Natural Causes</t>
-  </si>
-  <si>
     <t>Factor</t>
   </si>
   <si>
@@ -229,90 +228,12 @@
     <t>ref</t>
   </si>
   <si>
-    <t>Assumption</t>
-  </si>
-  <si>
     <t>Util_Well</t>
   </si>
   <si>
-    <t>Treatment - Stage I - Surgery</t>
-  </si>
-  <si>
-    <t>Treatment - Stage I - Surgery + RT</t>
-  </si>
-  <si>
-    <t>Treatment - Stage I - Other</t>
-  </si>
-  <si>
-    <t>Treatment - Stage II - Surgery</t>
-  </si>
-  <si>
-    <t>Treatment - Stage II - Surgery + RT</t>
-  </si>
-  <si>
-    <t>Treatment - Stage II - Other</t>
-  </si>
-  <si>
-    <t>Treatment - Advanced - Surgery</t>
-  </si>
-  <si>
-    <t>Treatment - Advanced - Surgery + RT</t>
-  </si>
-  <si>
-    <t>Treatment - Advanced - Other</t>
-  </si>
-  <si>
-    <t>Treatment - Recurrence - Surgery</t>
-  </si>
-  <si>
-    <t>Treatment - Recurrence - Nonsurgery</t>
-  </si>
-  <si>
-    <t>Treatment - Recurrence - Palliative</t>
-  </si>
-  <si>
-    <t>Treatment - Recurrence - No Treatment</t>
-  </si>
-  <si>
-    <t>Treatment - Second Recurrence</t>
-  </si>
-  <si>
     <t>Treatment - End of Life</t>
   </si>
   <si>
-    <t>Specialist Appointment</t>
-  </si>
-  <si>
-    <t>BCDA Suggested Fee Guide ("Standard Oral Examination")</t>
-  </si>
-  <si>
-    <t>MSP Oral Medicine - 03773</t>
-  </si>
-  <si>
-    <t>MSP Oral Medicine - 03770</t>
-  </si>
-  <si>
-    <t>MSP Oral Medicine - 03785</t>
-  </si>
-  <si>
-    <t>Treatment - Palliative</t>
-  </si>
-  <si>
-    <t>Weighted average + SD from MSP oncology f/u code (33512)</t>
-  </si>
-  <si>
-    <t>MSP - 33512</t>
-  </si>
-  <si>
-    <t>"Diagnostic Examination and Consultation (MSP 03770)" + CT Scan (MSP 08693) + PET Scan (OHIP)</t>
-  </si>
-  <si>
-    <t>Cancer Screening</t>
-  </si>
-  <si>
-    <t>Treatment - HGL - Surgery</t>
-  </si>
-  <si>
     <t>VarNo</t>
   </si>
   <si>
@@ -590,13 +511,82 @@
   </si>
   <si>
     <t>Util_Second_Treatment_Standard</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>Conventional Diagnostic Test</t>
+  </si>
+  <si>
+    <t>Follow-up - cycle 1</t>
+  </si>
+  <si>
+    <t>Follow-up - cycle 2</t>
+  </si>
+  <si>
+    <t>Follow-up - cycle 3</t>
+  </si>
+  <si>
+    <t>Follow-up - cycle 4</t>
+  </si>
+  <si>
+    <t>Follow-up - cycle 5</t>
+  </si>
+  <si>
+    <t>Follow-up - cycle 6</t>
+  </si>
+  <si>
+    <t>Follow-up - cycle 7</t>
+  </si>
+  <si>
+    <t>Follow-up - cycle 8</t>
+  </si>
+  <si>
+    <t>Follow-up - cycle 9</t>
+  </si>
+  <si>
+    <t>Follow-up - final</t>
+  </si>
+  <si>
+    <t>Treatment - First Line - Standard Care</t>
+  </si>
+  <si>
+    <t>Treatment - Second Line - Standard Care</t>
+  </si>
+  <si>
+    <t>Treatment - First Line - NGS-guided Care</t>
+  </si>
+  <si>
+    <t>Treatment - Second Line - NGS-guided Care</t>
+  </si>
+  <si>
+    <t>NGS Diagnostic Test</t>
+  </si>
+  <si>
+    <t>Adverse Event - First Line - Standard Care</t>
+  </si>
+  <si>
+    <t>Adverse Event - Second Line - Standard Care</t>
+  </si>
+  <si>
+    <t>Adverse Event - First Line - NGS-guided Care</t>
+  </si>
+  <si>
+    <t>Adverse Event - Second Line - NGS-guided Care</t>
+  </si>
+  <si>
+    <t>SysP_Diagnosis</t>
+  </si>
+  <si>
+    <t>SysP_Terminal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,19 +639,6 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Menlo"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -994,45 +971,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1044,12 +1024,12 @@
         <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1061,12 +1041,12 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1078,12 +1058,12 @@
         <v>166</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1095,12 +1075,12 @@
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1115,9 +1095,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1132,9 +1112,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1149,9 +1129,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1166,9 +1146,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1183,9 +1163,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1200,9 +1180,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1217,9 +1197,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1234,12 +1214,12 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -1254,36 +1234,31 @@
         <v>0.1</v>
       </c>
       <c r="G14" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
-      </c>
-      <c r="E15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>121</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -1295,12 +1270,12 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1315,12 +1290,12 @@
         <v>0.01</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1335,12 +1310,12 @@
         <v>0.01</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1355,129 +1330,128 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E20">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>0.4</v>
-      </c>
-      <c r="E21">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>0.4</v>
-      </c>
-      <c r="E22">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="E23">
         <v>0.01</v>
       </c>
       <c r="G23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.05</v>
+      </c>
+      <c r="E24">
+        <v>0.01</v>
       </c>
       <c r="G24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>0.4</v>
+        <v>21</v>
       </c>
       <c r="E25">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1492,43 +1466,52 @@
         <v>0.01</v>
       </c>
       <c r="G26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.4</v>
+      </c>
+      <c r="E27">
+        <v>0.01</v>
+      </c>
+      <c r="G27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.4</v>
+      </c>
+      <c r="E28">
+        <v>0.01</v>
       </c>
       <c r="G28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1543,12 +1526,12 @@
         <v>0.01</v>
       </c>
       <c r="G29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1563,12 +1546,12 @@
         <v>0.01</v>
       </c>
       <c r="G30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1583,12 +1566,12 @@
         <v>0.01</v>
       </c>
       <c r="G31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1603,126 +1586,123 @@
         <v>0.01</v>
       </c>
       <c r="G32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
         <v>0.4</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>0.01</v>
       </c>
-      <c r="G33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>21</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
       <c r="G34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.4</v>
+      </c>
+      <c r="E35">
+        <v>0.01</v>
       </c>
       <c r="G35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.4</v>
+      </c>
+      <c r="E36">
+        <v>0.01</v>
       </c>
       <c r="G36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="E37">
         <v>0.01</v>
       </c>
       <c r="G37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0.05</v>
-      </c>
-      <c r="E38">
-        <v>0.01</v>
-      </c>
-      <c r="G38" t="s">
-        <v>125</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K27">
-    <sortCondition ref="A2:A27"/>
+  <sortState ref="A2:K38">
+    <sortCondition ref="A2:A38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1731,24 +1711,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" customWidth="1"/>
+    <col min="2" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1756,525 +1736,482 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>43.1</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>500</v>
+      </c>
+      <c r="E2" s="3">
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>254.91</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E4" s="3">
+        <v>190</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>250.4</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E5" s="3">
+        <v>180</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>59.51</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E6" s="3">
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="3">
-        <v>9268.5499999999993</v>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>10758.64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1600</v>
+      </c>
+      <c r="E7" s="3">
+        <v>160</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
-        <v>9268.5499999999993</v>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>10758.64</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>150</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
-        <v>21219</v>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>17525.96</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>140</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
-        <v>7630.33</v>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>9051.5499999999993</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>130</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
-        <v>19299.16</v>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>25503.439999999999</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="E11" s="3">
+        <v>120</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
-        <v>26059.51</v>
+      <c r="C12">
+        <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>18567.71</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>110</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
-        <v>10279.56</v>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>8660.23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20000</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
-        <v>38185.449999999997</v>
+      <c r="C14">
+        <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>40438.870000000003</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>30000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
-        <v>34925.65</v>
+      <c r="C15">
+        <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>22256.47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="3">
-        <v>14848.61</v>
+      <c r="C16">
+        <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>16238.45</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>50000</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="3">
-        <v>29262.14</v>
+      <c r="C17">
+        <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>42730.52</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="3">
-        <v>17066.59</v>
+      <c r="C18">
+        <v>1</v>
       </c>
       <c r="D18" s="3">
-        <v>20314.990000000002</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" s="3">
-        <v>20778.66</v>
+      <c r="C19">
+        <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>31106.02</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2100</v>
+      </c>
+      <c r="E19" s="3">
+        <v>210</v>
+      </c>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" s="3">
-        <v>11119.52</v>
+      <c r="C20">
+        <v>1</v>
       </c>
       <c r="D20" s="3">
-        <v>8518</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>250</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" s="3">
-        <v>16616.98</v>
+      <c r="C21">
+        <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>27427.74</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>310</v>
+      </c>
+      <c r="F21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" s="3">
-        <v>20778.66</v>
+      <c r="C22">
+        <v>1</v>
       </c>
       <c r="D22" s="3">
-        <v>31106.02</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3">
-        <v>17930.25</v>
-      </c>
-      <c r="D23" s="3">
-        <v>21977.09</v>
-      </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>591.29</v>
-      </c>
+        <v>3500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>350</v>
+      </c>
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
       <c r="D24" s="3"/>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3">
-        <v>154</v>
-      </c>
-      <c r="D25" s="3">
-        <v>75</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3">
-        <v>80.67</v>
-      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2"/>
       <c r="D26" s="3"/>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>80.67</v>
-      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
       <c r="D27" s="3"/>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" s="3">
-        <v>154</v>
-      </c>
-      <c r="D28" s="3">
-        <v>75</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" t="str">
-        <f>F25</f>
-        <v>Weighted average + SD from MSP oncology f/u code (33512)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="D29" s="3"/>
-      <c r="E29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="D30" s="3"/>
-      <c r="E30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C31" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2283,7 +2220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F73"/>
   <sheetViews>
@@ -2291,23 +2228,23 @@
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2316,18 +2253,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E2">
         <v>-4.8614649999999999</v>
@@ -2336,18 +2273,18 @@
         <v>0.56226900000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>-0.5228583</v>
@@ -2356,18 +2293,18 @@
         <v>0.1233935</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>-3.7219159999999998</v>
@@ -2376,18 +2313,18 @@
         <v>0.98258809999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>-0.96361240000000004</v>
@@ -2396,18 +2333,18 @@
         <v>0.32371250000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>-5.4284239999999997</v>
@@ -2416,18 +2353,18 @@
         <v>0.6997776</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E7">
         <v>-0.66112340000000003</v>
@@ -2436,18 +2373,18 @@
         <v>0.17157069999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E8">
         <v>-5.125019</v>
@@ -2456,18 +2393,18 @@
         <v>1.07975</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>-0.54901319999999998</v>
@@ -2476,18 +2413,18 @@
         <v>0.24004819999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E10">
         <v>-4.8843170000000002</v>
@@ -2496,18 +2433,18 @@
         <v>1.047987</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E11">
         <v>-0.6201063</v>
@@ -2516,18 +2453,18 @@
         <v>0.25068610000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <v>-3.7219159999999998</v>
@@ -2536,18 +2473,18 @@
         <v>0.98258809999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>-0.96361240000000004</v>
@@ -2556,18 +2493,18 @@
         <v>0.32371250000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E14">
         <v>-5.3335249999999998</v>
@@ -2576,18 +2513,18 @@
         <v>0.99185429999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>-0.70301809999999998</v>
@@ -2596,18 +2533,18 @@
         <v>0.25211929999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E16">
         <v>-4.8696770000000003</v>
@@ -2616,18 +2553,18 @@
         <v>1.522791</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E17">
         <v>-0.65110840000000003</v>
@@ -2636,18 +2573,18 @@
         <v>0.37036229999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E18">
         <v>-4.8604849999999997</v>
@@ -2656,18 +2593,18 @@
         <v>0.66654230000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E19">
         <v>-0.47558</v>
@@ -2676,18 +2613,18 @@
         <v>0.14039889999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E20">
         <v>-3.7219159999999998</v>
@@ -2696,18 +2633,18 @@
         <v>0.98258809999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <v>-0.96361240000000004</v>
@@ -2716,18 +2653,18 @@
         <v>0.32371250000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E22">
         <v>-4.8389689999999996</v>
@@ -2736,18 +2673,18 @@
         <v>0.70690160000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E23">
         <v>-0.75679850000000004</v>
@@ -2756,18 +2693,18 @@
         <v>0.19084709999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E24">
         <v>-5.4116799999999996</v>
@@ -2776,18 +2713,18 @@
         <v>1.5424359999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E25">
         <v>-0.4523102</v>
@@ -2796,18 +2733,18 @@
         <v>0.31514569999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E26">
         <v>-7.5961809999999996</v>
@@ -2816,18 +2753,18 @@
         <v>1.4116519999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E27">
         <v>-0.28306179999999997</v>
@@ -2836,18 +2773,18 @@
         <v>0.24249280000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-10.722340000000001</v>
@@ -2856,18 +2793,18 @@
         <v>6.8431790000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>1.65183E-2</v>
@@ -2876,18 +2813,18 @@
         <v>0.84597500000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E30">
         <v>-9.8273209999999995</v>
@@ -2896,18 +2833,18 @@
         <v>1.49576</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E31">
         <v>1.4131700000000001E-2</v>
@@ -2916,18 +2853,18 @@
         <v>0.1865637</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E32">
         <v>-9.6285810000000005</v>
@@ -2936,18 +2873,18 @@
         <v>3.6240800000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E33">
         <v>-4.5154100000000003E-2</v>
@@ -2956,18 +2893,18 @@
         <v>0.4831473</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E34">
         <v>-5.3542100000000001</v>
@@ -2976,18 +2913,18 @@
         <v>1.811401</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E35">
         <v>-1.0616540000000001</v>
@@ -2996,18 +2933,18 @@
         <v>0.66370980000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E36">
         <v>-10.722340000000001</v>
@@ -3016,18 +2953,18 @@
         <v>6.8431790000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E37">
         <v>1.65183E-2</v>
@@ -3036,18 +2973,18 @@
         <v>0.84597500000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E38">
         <v>-12.205679999999999</v>
@@ -3056,18 +2993,18 @@
         <v>7.2096809999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E39">
         <v>3.87126E-2</v>
@@ -3076,18 +3013,18 @@
         <v>0.8750618</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E40">
         <v>-9.6285810000000005</v>
@@ -3096,18 +3033,18 @@
         <v>3.6240800000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E41">
         <v>-4.5154100000000003E-2</v>
@@ -3116,18 +3053,18 @@
         <v>0.4831473</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E42">
         <v>-8.7907849999999996</v>
@@ -3136,18 +3073,18 @@
         <v>1.8740030000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E43">
         <v>-5.3880999999999998E-2</v>
@@ -3156,18 +3093,18 @@
         <v>0.25437369999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E44">
         <v>-10.722340000000001</v>
@@ -3176,18 +3113,18 @@
         <v>6.8431790000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E45">
         <v>1.65183E-2</v>
@@ -3196,18 +3133,18 @@
         <v>0.84597500000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E46">
         <v>-9.4201750000000004</v>
@@ -3216,18 +3153,18 @@
         <v>1.5367679999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E47">
         <v>2.1787299999999999E-2</v>
@@ -3236,18 +3173,18 @@
         <v>0.1904719</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E48">
         <v>-9.6285810000000005</v>
@@ -3256,18 +3193,18 @@
         <v>3.6240800000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D49" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E49">
         <v>-4.5154100000000003E-2</v>
@@ -3276,18 +3213,18 @@
         <v>0.4831473</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E50">
         <v>-3.2747120000000001</v>
@@ -3296,18 +3233,18 @@
         <v>0.45247939999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E51">
         <v>-0.63537929999999998</v>
@@ -3316,18 +3253,18 @@
         <v>0.122891</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E52">
         <v>-9.4869240000000001</v>
@@ -3336,18 +3273,18 @@
         <v>2.7837209999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E53">
         <v>0.70038330000000004</v>
@@ -3356,18 +3293,18 @@
         <v>0.27812809999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E54">
         <v>-3.1834349999999998</v>
@@ -3376,18 +3313,18 @@
         <v>0.62189530000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E55">
         <v>-0.75665110000000002</v>
@@ -3396,18 +3333,18 @@
         <v>0.1885936</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E56">
         <v>-3.3841510000000001</v>
@@ -3416,18 +3353,18 @@
         <v>0.85316999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E57">
         <v>-0.58586269999999996</v>
@@ -3436,18 +3373,18 @@
         <v>0.22330649999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E58">
         <v>-3.3393130000000002</v>
@@ -3456,18 +3393,18 @@
         <v>0.98982800000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E59">
         <v>-0.80166400000000004</v>
@@ -3476,18 +3413,18 @@
         <v>0.29951870000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E60">
         <v>-9.4869240000000001</v>
@@ -3496,18 +3433,18 @@
         <v>2.7837209999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E61">
         <v>0.70038330000000004</v>
@@ -3516,18 +3453,18 @@
         <v>0.27812809999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E62">
         <v>-3.1833879999999999</v>
@@ -3536,18 +3473,18 @@
         <v>0.92363510000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E63">
         <v>-0.83449700000000004</v>
@@ -3556,18 +3493,18 @@
         <v>0.28962919999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D64" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E64">
         <v>-3.6348850000000001</v>
@@ -3576,18 +3513,18 @@
         <v>1.385478</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D65" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E65">
         <v>-0.51855770000000001</v>
@@ -3596,18 +3533,18 @@
         <v>0.34395890000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E66">
         <v>-3.3733050000000002</v>
@@ -3616,18 +3553,18 @@
         <v>0.52197899999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D67" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E67">
         <v>-0.53891429999999996</v>
@@ -3636,18 +3573,18 @@
         <v>0.1329236</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E68">
         <v>-9.4869240000000001</v>
@@ -3656,18 +3593,18 @@
         <v>2.7837209999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E69">
         <v>0.70038330000000004</v>
@@ -3676,18 +3613,18 @@
         <v>0.27812809999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E70">
         <v>-3.5435949999999998</v>
@@ -3696,18 +3633,18 @@
         <v>0.70051419999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E71">
         <v>-0.47834569999999998</v>
@@ -3716,18 +3653,18 @@
         <v>0.1784395</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D72" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E72">
         <v>-3.2215929999999999</v>
@@ -3736,18 +3673,18 @@
         <v>1.083429</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D73" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E73">
         <v>-0.63080709999999995</v>
@@ -3763,32 +3700,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="3" width="9.83203125" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="3" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -3800,38 +3737,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3843,18 +3780,18 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -3866,15 +3803,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -3886,18 +3823,18 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3909,18 +3846,18 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3932,18 +3869,18 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3955,35 +3892,35 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -3995,15 +3932,15 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -4015,38 +3952,38 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4058,18 +3995,18 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4081,15 +4018,15 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -4101,18 +4038,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -4124,18 +4061,18 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4147,18 +4084,18 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4170,35 +4107,35 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -4210,15 +4147,15 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -4236,163 +4173,163 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4401,12 +4338,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4415,12 +4352,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4429,12 +4366,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4443,12 +4380,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>0</v>

--- a/InputParameters.xlsx
+++ b/InputParameters.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icromwell/Desktop/My Work/Lymphoma/DES Model/DLBCL_DES_COO/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979283E4-DA7D-5B49-992A-73F07A1A5FA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13815" yWindow="840" windowWidth="14340" windowHeight="14265" activeTab="1"/>
+    <workbookView xWindow="13820" yWindow="840" windowWidth="14340" windowHeight="14260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Inputs" sheetId="1" r:id="rId1"/>
-    <sheet name="Costs" sheetId="2" r:id="rId2"/>
-    <sheet name="RegCoeffs" sheetId="3" r:id="rId3"/>
-    <sheet name="PrefCoeffs" sheetId="4" r:id="rId4"/>
-    <sheet name="TestChars" sheetId="5" r:id="rId5"/>
+    <sheet name="Scenario" sheetId="6" r:id="rId1"/>
+    <sheet name="Inputs" sheetId="1" r:id="rId2"/>
+    <sheet name="Costs" sheetId="2" r:id="rId3"/>
+    <sheet name="RegCoeffs" sheetId="3" r:id="rId4"/>
+    <sheet name="PrefCoeffs" sheetId="4" r:id="rId5"/>
+    <sheet name="TestChars" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ian Cromwell</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -100,13 +101,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
     <author>Ian Cromwell</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -160,12 +161,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ian Cromwell</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -196,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="163">
   <si>
     <t>TypeNo</t>
   </si>
@@ -580,13 +581,118 @@
   </si>
   <si>
     <t>SysP_Terminal</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>What subtypes are eligible for treatment? ABC</t>
+  </si>
+  <si>
+    <t>What subtypes are eligible for treatment? GCB</t>
+  </si>
+  <si>
+    <t>What subtypes are eligible for treatment? Undef</t>
+  </si>
+  <si>
+    <t>What subtypes are eligible for treatment? Double-hit</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>1 - Yes; 0 - No</t>
+  </si>
+  <si>
+    <t>1 - First Line; 2 - Second Line</t>
+  </si>
+  <si>
+    <t>When is experimental treatment offered?</t>
+  </si>
+  <si>
+    <t>Is an NGS test available?</t>
+  </si>
+  <si>
+    <t>In what order are diagnostic tests performed?</t>
+  </si>
+  <si>
+    <t>0 - NGS only; 1 - Conventional, then NGS; 2 - NGS, then conventional</t>
+  </si>
+  <si>
+    <t>What age group receives NGS testing?</t>
+  </si>
+  <si>
+    <t>0 - General population; 1 - &lt;60y; 2 - &gt;60y</t>
+  </si>
+  <si>
+    <t>Is a companion diagnostic available?</t>
+  </si>
+  <si>
+    <t>TimeHorizon</t>
+  </si>
+  <si>
+    <t>How many years does the model run?</t>
+  </si>
+  <si>
+    <t>Disc_O</t>
+  </si>
+  <si>
+    <t>Disc_C</t>
+  </si>
+  <si>
+    <t>Discount Rate - Outcomes</t>
+  </si>
+  <si>
+    <t>Discount Rate - Costs</t>
+  </si>
+  <si>
+    <t>CohortSize</t>
+  </si>
+  <si>
+    <t>How many entities in the simulated cohort?</t>
+  </si>
+  <si>
+    <t>COO_ABC</t>
+  </si>
+  <si>
+    <t>COO_Dhit</t>
+  </si>
+  <si>
+    <t>COO_GCB</t>
+  </si>
+  <si>
+    <t>COO_Undef</t>
+  </si>
+  <si>
+    <t>NGSTest</t>
+  </si>
+  <si>
+    <t>TestSequencing</t>
+  </si>
+  <si>
+    <t>AgeCohort</t>
+  </si>
+  <si>
+    <t>Companion</t>
+  </si>
+  <si>
+    <t>TestTiming</t>
+  </si>
+  <si>
+    <t>Companion Diagnostic</t>
+  </si>
+  <si>
+    <t>SysP_Companion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -971,7 +1077,211 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2244B35-1162-3740-9365-7990823231FC}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K38"/>
   <sheetViews>
@@ -979,15 +1289,15 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1010,7 +1320,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1027,7 +1337,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1044,7 +1354,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1061,7 +1371,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1078,7 +1388,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1095,7 +1405,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1112,7 +1422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1129,7 +1439,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -1146,7 +1456,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -1163,7 +1473,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -1180,7 +1490,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -1197,7 +1507,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1217,7 +1527,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75">
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -1239,7 +1549,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -1256,7 +1566,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -1273,7 +1583,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -1293,7 +1603,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -1313,7 +1623,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -1333,7 +1643,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75">
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -1355,7 +1665,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -1372,7 +1682,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -1389,7 +1699,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -1409,7 +1719,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -1429,7 +1739,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -1449,7 +1759,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1469,7 +1779,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -1489,7 +1799,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>98</v>
       </c>
@@ -1509,7 +1819,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -1529,7 +1839,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -1549,7 +1859,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -1569,7 +1879,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -1589,7 +1899,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -1606,7 +1916,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -1626,7 +1936,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -1646,7 +1956,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -1666,7 +1976,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -1686,7 +1996,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1701,7 +2011,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K38">
     <sortCondition ref="A2:A38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1710,25 +2020,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="3" width="7.85546875" customWidth="1"/>
+    <col min="2" max="3" width="7.83203125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1751,7 +2061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
@@ -1771,7 +2081,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>107</v>
       </c>
@@ -1791,7 +2101,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>108</v>
       </c>
@@ -1811,7 +2121,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>109</v>
       </c>
@@ -1831,7 +2141,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>110</v>
       </c>
@@ -1851,7 +2161,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>111</v>
       </c>
@@ -1871,7 +2181,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>112</v>
       </c>
@@ -1891,7 +2201,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>113</v>
       </c>
@@ -1911,7 +2221,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>114</v>
       </c>
@@ -1931,7 +2241,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>115</v>
       </c>
@@ -1951,7 +2261,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>116</v>
       </c>
@@ -1971,7 +2281,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>117</v>
       </c>
@@ -1991,7 +2301,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>118</v>
       </c>
@@ -2011,7 +2321,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>119</v>
       </c>
@@ -2031,7 +2341,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>120</v>
       </c>
@@ -2051,7 +2361,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -2071,7 +2381,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>121</v>
       </c>
@@ -2091,7 +2401,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>122</v>
       </c>
@@ -2111,7 +2421,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>123</v>
       </c>
@@ -2131,7 +2441,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>124</v>
       </c>
@@ -2151,7 +2461,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>125</v>
       </c>
@@ -2171,45 +2481,60 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>600</v>
+      </c>
+      <c r="F23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
@@ -2219,8 +2544,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F73"/>
   <sheetViews>
@@ -2228,12 +2553,12 @@
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2253,7 +2578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -2273,7 +2598,7 @@
         <v>0.56226900000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -2293,7 +2618,7 @@
         <v>0.1233935</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -2313,7 +2638,7 @@
         <v>0.98258809999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -2333,7 +2658,7 @@
         <v>0.32371250000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -2353,7 +2678,7 @@
         <v>0.6997776</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -2373,7 +2698,7 @@
         <v>0.17157069999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -2393,7 +2718,7 @@
         <v>1.07975</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -2413,7 +2738,7 @@
         <v>0.24004819999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -2433,7 +2758,7 @@
         <v>1.047987</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -2453,7 +2778,7 @@
         <v>0.25068610000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -2473,7 +2798,7 @@
         <v>0.98258809999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -2493,7 +2818,7 @@
         <v>0.32371250000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -2513,7 +2838,7 @@
         <v>0.99185429999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -2533,7 +2858,7 @@
         <v>0.25211929999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -2553,7 +2878,7 @@
         <v>1.522791</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -2573,7 +2898,7 @@
         <v>0.37036229999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -2593,7 +2918,7 @@
         <v>0.66654230000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -2613,7 +2938,7 @@
         <v>0.14039889999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -2633,7 +2958,7 @@
         <v>0.98258809999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -2653,7 +2978,7 @@
         <v>0.32371250000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -2673,7 +2998,7 @@
         <v>0.70690160000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -2693,7 +3018,7 @@
         <v>0.19084709999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -2713,7 +3038,7 @@
         <v>1.5424359999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -2733,7 +3058,7 @@
         <v>0.31514569999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -2753,7 +3078,7 @@
         <v>1.4116519999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -2773,7 +3098,7 @@
         <v>0.24249280000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -2793,7 +3118,7 @@
         <v>6.8431790000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -2813,7 +3138,7 @@
         <v>0.84597500000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -2833,7 +3158,7 @@
         <v>1.49576</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -2853,7 +3178,7 @@
         <v>0.1865637</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -2873,7 +3198,7 @@
         <v>3.6240800000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -2893,7 +3218,7 @@
         <v>0.4831473</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -2913,7 +3238,7 @@
         <v>1.811401</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2933,7 +3258,7 @@
         <v>0.66370980000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -2953,7 +3278,7 @@
         <v>6.8431790000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -2973,7 +3298,7 @@
         <v>0.84597500000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -2993,7 +3318,7 @@
         <v>7.2096809999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -3013,7 +3338,7 @@
         <v>0.8750618</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -3033,7 +3358,7 @@
         <v>3.6240800000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -3053,7 +3378,7 @@
         <v>0.4831473</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -3073,7 +3398,7 @@
         <v>1.8740030000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -3093,7 +3418,7 @@
         <v>0.25437369999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -3113,7 +3438,7 @@
         <v>6.8431790000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -3133,7 +3458,7 @@
         <v>0.84597500000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -3153,7 +3478,7 @@
         <v>1.5367679999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -3173,7 +3498,7 @@
         <v>0.1904719</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -3193,7 +3518,7 @@
         <v>3.6240800000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -3213,7 +3538,7 @@
         <v>0.4831473</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -3233,7 +3558,7 @@
         <v>0.45247939999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -3253,7 +3578,7 @@
         <v>0.122891</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -3273,7 +3598,7 @@
         <v>2.7837209999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -3293,7 +3618,7 @@
         <v>0.27812809999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -3313,7 +3638,7 @@
         <v>0.62189530000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -3333,7 +3658,7 @@
         <v>0.1885936</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -3353,7 +3678,7 @@
         <v>0.85316999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -3373,7 +3698,7 @@
         <v>0.22330649999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -3393,7 +3718,7 @@
         <v>0.98982800000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -3413,7 +3738,7 @@
         <v>0.29951870000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -3433,7 +3758,7 @@
         <v>2.7837209999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -3453,7 +3778,7 @@
         <v>0.27812809999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -3473,7 +3798,7 @@
         <v>0.92363510000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -3493,7 +3818,7 @@
         <v>0.28962919999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -3513,7 +3838,7 @@
         <v>1.385478</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -3533,7 +3858,7 @@
         <v>0.34395890000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -3553,7 +3878,7 @@
         <v>0.52197899999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -3573,7 +3898,7 @@
         <v>0.1329236</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -3593,7 +3918,7 @@
         <v>2.7837209999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -3613,7 +3938,7 @@
         <v>0.27812809999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -3633,7 +3958,7 @@
         <v>0.70051419999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -3653,7 +3978,7 @@
         <v>0.1784395</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -3673,7 +3998,7 @@
         <v>1.083429</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3699,22 +4024,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="3" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="3" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3737,7 +4062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3757,7 +4082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3780,7 +4105,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3803,7 +4128,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3823,7 +4148,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3846,7 +4171,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3869,7 +4194,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -3892,7 +4217,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3912,7 +4237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3932,7 +4257,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3952,7 +4277,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -3972,7 +4297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -3995,7 +4320,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -4018,7 +4343,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -4038,7 +4363,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -4061,7 +4386,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -4084,7 +4409,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -4107,7 +4432,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -4127,7 +4452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4147,7 +4472,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -4172,23 +4497,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4205,7 +4530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -4222,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -4239,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -4256,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -4273,7 +4598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -4290,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -4307,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -4324,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -4338,7 +4663,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -4352,7 +4677,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -4366,7 +4691,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -4380,7 +4705,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>

--- a/InputParameters.xlsx
+++ b/InputParameters.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icromwell/Desktop/My Work/Lymphoma/DES Model/DLBCL_DES_COO/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979283E4-DA7D-5B49-992A-73F07A1A5FA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13820" yWindow="840" windowWidth="14340" windowHeight="14260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13815" yWindow="840" windowWidth="14340" windowHeight="14265"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="6" r:id="rId1"/>
@@ -33,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ian Cromwell</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -101,13 +95,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
     <author>Ian Cromwell</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -161,12 +155,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ian Cromwell</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -691,8 +685,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1077,21 +1071,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2244B35-1162-3740-9365-7990823231FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="37.83203125" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -1105,7 +1099,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -1119,7 +1113,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -1133,7 +1127,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>154</v>
       </c>
@@ -1147,7 +1141,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -1161,7 +1155,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>160</v>
       </c>
@@ -1175,7 +1169,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>156</v>
       </c>
@@ -1189,7 +1183,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -1203,7 +1197,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>158</v>
       </c>
@@ -1217,7 +1211,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -1231,7 +1225,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -1242,7 +1236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -1253,7 +1247,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>147</v>
       </c>
@@ -1264,7 +1258,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>150</v>
       </c>
@@ -1272,7 +1266,7 @@
         <v>151</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K38"/>
   <sheetViews>
@@ -1289,15 +1283,15 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1320,7 +1314,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1337,7 +1331,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1354,7 +1348,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1371,7 +1365,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1388,7 +1382,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1405,7 +1399,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1422,7 +1416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1439,7 +1433,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -1456,7 +1450,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -1473,7 +1467,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -1490,7 +1484,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -1507,7 +1501,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1527,7 +1521,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15.75">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -1549,7 +1543,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -1566,7 +1560,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -1583,7 +1577,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -1603,7 +1597,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -1623,7 +1617,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -1643,7 +1637,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -1665,7 +1659,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -1682,7 +1676,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -1699,7 +1693,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -1719,7 +1713,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -1739,7 +1733,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -1759,7 +1753,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1779,7 +1773,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -1799,7 +1793,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>98</v>
       </c>
@@ -1819,7 +1813,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -1839,7 +1833,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -1859,7 +1853,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -1879,7 +1873,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -1899,7 +1893,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -1916,7 +1910,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -1936,7 +1930,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -1956,7 +1950,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -1976,7 +1970,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -1996,7 +1990,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2011,7 +2005,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K38">
+  <sortState ref="A2:K38">
     <sortCondition ref="A2:A38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2021,24 +2015,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="3" width="7.83203125" customWidth="1"/>
+    <col min="2" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2061,7 +2055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
@@ -2081,7 +2075,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>107</v>
       </c>
@@ -2101,7 +2095,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>108</v>
       </c>
@@ -2121,7 +2115,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>109</v>
       </c>
@@ -2141,7 +2135,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>110</v>
       </c>
@@ -2161,7 +2155,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>111</v>
       </c>
@@ -2181,7 +2175,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>112</v>
       </c>
@@ -2201,7 +2195,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>113</v>
       </c>
@@ -2221,7 +2215,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>114</v>
       </c>
@@ -2241,7 +2235,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>115</v>
       </c>
@@ -2261,7 +2255,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>116</v>
       </c>
@@ -2281,7 +2275,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>117</v>
       </c>
@@ -2301,7 +2295,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>118</v>
       </c>
@@ -2321,7 +2315,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>119</v>
       </c>
@@ -2341,7 +2335,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>120</v>
       </c>
@@ -2361,7 +2355,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -2381,7 +2375,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>121</v>
       </c>
@@ -2401,7 +2395,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>122</v>
       </c>
@@ -2421,7 +2415,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>123</v>
       </c>
@@ -2441,7 +2435,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>124</v>
       </c>
@@ -2461,7 +2455,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>125</v>
       </c>
@@ -2481,7 +2475,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>161</v>
       </c>
@@ -2501,40 +2495,40 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
@@ -2545,20 +2539,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O66" sqref="O66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2578,7 +2572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -2598,7 +2592,7 @@
         <v>0.56226900000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -2618,7 +2612,7 @@
         <v>0.1233935</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -2638,7 +2632,7 @@
         <v>0.98258809999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -2658,7 +2652,7 @@
         <v>0.32371250000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -2678,7 +2672,7 @@
         <v>0.6997776</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -2698,7 +2692,7 @@
         <v>0.17157069999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -2718,7 +2712,7 @@
         <v>1.07975</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -2738,7 +2732,7 @@
         <v>0.24004819999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -2758,7 +2752,7 @@
         <v>1.047987</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -2778,7 +2772,7 @@
         <v>0.25068610000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -2798,7 +2792,7 @@
         <v>0.98258809999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -2818,7 +2812,7 @@
         <v>0.32371250000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -2838,7 +2832,7 @@
         <v>0.99185429999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -2858,7 +2852,7 @@
         <v>0.25211929999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -2878,7 +2872,7 @@
         <v>1.522791</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -2898,7 +2892,7 @@
         <v>0.37036229999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -2918,7 +2912,7 @@
         <v>0.66654230000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -2938,7 +2932,7 @@
         <v>0.14039889999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -2958,7 +2952,7 @@
         <v>0.98258809999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -2978,7 +2972,7 @@
         <v>0.32371250000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -2998,7 +2992,7 @@
         <v>0.70690160000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -3018,7 +3012,7 @@
         <v>0.19084709999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -3038,7 +3032,7 @@
         <v>1.5424359999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -3058,7 +3052,7 @@
         <v>0.31514569999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -3078,7 +3072,7 @@
         <v>1.4116519999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -3098,7 +3092,7 @@
         <v>0.24249280000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -3118,7 +3112,7 @@
         <v>6.8431790000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -3138,7 +3132,7 @@
         <v>0.84597500000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -3158,7 +3152,7 @@
         <v>1.49576</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -3178,7 +3172,7 @@
         <v>0.1865637</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -3198,7 +3192,7 @@
         <v>3.6240800000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -3218,7 +3212,7 @@
         <v>0.4831473</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -3238,7 +3232,7 @@
         <v>1.811401</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -3258,7 +3252,7 @@
         <v>0.66370980000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -3278,7 +3272,7 @@
         <v>6.8431790000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -3298,7 +3292,7 @@
         <v>0.84597500000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -3318,7 +3312,7 @@
         <v>7.2096809999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -3338,7 +3332,7 @@
         <v>0.8750618</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -3358,7 +3352,7 @@
         <v>3.6240800000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -3378,7 +3372,7 @@
         <v>0.4831473</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -3398,7 +3392,7 @@
         <v>1.8740030000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -3418,7 +3412,7 @@
         <v>0.25437369999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -3438,7 +3432,7 @@
         <v>6.8431790000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -3458,7 +3452,7 @@
         <v>0.84597500000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -3478,7 +3472,7 @@
         <v>1.5367679999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -3498,7 +3492,7 @@
         <v>0.1904719</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -3518,7 +3512,7 @@
         <v>3.6240800000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -3538,7 +3532,7 @@
         <v>0.4831473</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -3558,7 +3552,7 @@
         <v>0.45247939999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -3578,7 +3572,7 @@
         <v>0.122891</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -3598,7 +3592,7 @@
         <v>2.7837209999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -3618,7 +3612,7 @@
         <v>0.27812809999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -3638,7 +3632,7 @@
         <v>0.62189530000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -3658,7 +3652,7 @@
         <v>0.1885936</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -3678,7 +3672,7 @@
         <v>0.85316999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -3698,7 +3692,7 @@
         <v>0.22330649999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -3718,7 +3712,7 @@
         <v>0.98982800000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -3738,7 +3732,7 @@
         <v>0.29951870000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -3758,7 +3752,7 @@
         <v>2.7837209999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -3778,7 +3772,7 @@
         <v>0.27812809999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -3798,7 +3792,7 @@
         <v>0.92363510000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -3818,7 +3812,7 @@
         <v>0.28962919999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -3838,7 +3832,7 @@
         <v>1.385478</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -3858,7 +3852,7 @@
         <v>0.34395890000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -3878,7 +3872,7 @@
         <v>0.52197899999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -3898,7 +3892,7 @@
         <v>0.1329236</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -3918,7 +3912,7 @@
         <v>2.7837209999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -3938,7 +3932,7 @@
         <v>0.27812809999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -3958,7 +3952,7 @@
         <v>0.70051419999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -3978,7 +3972,7 @@
         <v>0.1784395</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -3998,7 +3992,7 @@
         <v>1.083429</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -4025,21 +4019,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="3" width="9.83203125" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="3" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4062,7 +4056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4082,7 +4076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4105,7 +4099,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4128,7 +4122,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -4148,7 +4142,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -4171,7 +4165,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -4194,7 +4188,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4217,7 +4211,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4237,7 +4231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -4257,7 +4251,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -4277,7 +4271,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -4297,7 +4291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4320,7 +4314,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -4343,7 +4337,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -4363,7 +4357,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -4386,7 +4380,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -4409,7 +4403,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -4432,7 +4426,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -4452,7 +4446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4472,7 +4466,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -4498,22 +4492,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4530,7 +4524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -4547,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -4564,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -4581,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -4598,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -4615,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -4632,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -4649,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -4663,7 +4657,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -4677,7 +4671,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -4691,7 +4685,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -4705,7 +4699,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>40</v>
       </c>

--- a/InputParameters.xlsx
+++ b/InputParameters.xlsx
@@ -1266,7 +1266,7 @@
         <v>151</v>
       </c>
       <c r="C14">
-        <v>500</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/InputParameters.xlsx
+++ b/InputParameters.xlsx
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1205,7 +1205,7 @@
         <v>141</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>142</v>
@@ -1266,7 +1266,7 @@
         <v>151</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
